--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21806,6 +21806,339 @@
       <c r="K609" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>350.7933333333333</v>
+      </c>
+      <c r="C610" t="n">
+        <v>352.9571428571429</v>
+      </c>
+      <c r="D610" t="n">
+        <v>359.4971428571428</v>
+      </c>
+      <c r="E610" t="n">
+        <v>372.2271428571429</v>
+      </c>
+      <c r="F610" t="n">
+        <v>369.9266666666667</v>
+      </c>
+      <c r="G610" t="n">
+        <v>357.85</v>
+      </c>
+      <c r="H610" t="n">
+        <v>355.86</v>
+      </c>
+      <c r="I610" t="n">
+        <v>333.7771428571428</v>
+      </c>
+      <c r="J610" t="n">
+        <v>327.93</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>331.8066666666667</v>
+      </c>
+      <c r="C611" t="n">
+        <v>328.4914285714286</v>
+      </c>
+      <c r="D611" t="n">
+        <v>343.2214285714285</v>
+      </c>
+      <c r="E611" t="n">
+        <v>343.5114285714285</v>
+      </c>
+      <c r="F611" t="n">
+        <v>337.5533333333333</v>
+      </c>
+      <c r="G611" t="n">
+        <v>329.64</v>
+      </c>
+      <c r="H611" t="n">
+        <v>332.38</v>
+      </c>
+      <c r="I611" t="n">
+        <v>329.5114285714285</v>
+      </c>
+      <c r="J611" t="n">
+        <v>328.26</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>357.0233333333333</v>
+      </c>
+      <c r="C612" t="n">
+        <v>351.5628571428572</v>
+      </c>
+      <c r="D612" t="n">
+        <v>355.4528571428572</v>
+      </c>
+      <c r="E612" t="n">
+        <v>373.0128571428572</v>
+      </c>
+      <c r="F612" t="n">
+        <v>367.9466666666667</v>
+      </c>
+      <c r="G612" t="n">
+        <v>357.27</v>
+      </c>
+      <c r="H612" t="n">
+        <v>356.69</v>
+      </c>
+      <c r="I612" t="n">
+        <v>336.6828571428572</v>
+      </c>
+      <c r="J612" t="n">
+        <v>303.22</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>345.9433333333333</v>
+      </c>
+      <c r="C613" t="n">
+        <v>345.1285714285714</v>
+      </c>
+      <c r="D613" t="n">
+        <v>354.4085714285715</v>
+      </c>
+      <c r="E613" t="n">
+        <v>356.4685714285715</v>
+      </c>
+      <c r="F613" t="n">
+        <v>354.6566666666667</v>
+      </c>
+      <c r="G613" t="n">
+        <v>346.23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>345.53</v>
+      </c>
+      <c r="I613" t="n">
+        <v>326.8185714285714</v>
+      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>336.4866666666667</v>
+      </c>
+      <c r="C614" t="n">
+        <v>330.9042857142857</v>
+      </c>
+      <c r="D614" t="n">
+        <v>333.3842857142857</v>
+      </c>
+      <c r="E614" t="n">
+        <v>346.3342857142857</v>
+      </c>
+      <c r="F614" t="n">
+        <v>344.9933333333333</v>
+      </c>
+      <c r="G614" t="n">
+        <v>337.46</v>
+      </c>
+      <c r="H614" t="n">
+        <v>335.49</v>
+      </c>
+      <c r="I614" t="n">
+        <v>315.6042857142857</v>
+      </c>
+      <c r="J614" t="n">
+        <v>317.78</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>343.0266666666667</v>
+      </c>
+      <c r="C615" t="n">
+        <v>372.3871428571428</v>
+      </c>
+      <c r="D615" t="n">
+        <v>370.0671428571428</v>
+      </c>
+      <c r="E615" t="n">
+        <v>362.0271428571429</v>
+      </c>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="n">
+        <v>333.01</v>
+      </c>
+      <c r="H615" t="n">
+        <v>332.98</v>
+      </c>
+      <c r="I615" t="n">
+        <v>318.2971428571428</v>
+      </c>
+      <c r="J615" t="n">
+        <v>320.88</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="C616" t="n">
+        <v>339.4314285714286</v>
+      </c>
+      <c r="D616" t="n">
+        <v>346.4314285714286</v>
+      </c>
+      <c r="E616" t="n">
+        <v>346.3014285714286</v>
+      </c>
+      <c r="F616" t="n">
+        <v>343.13</v>
+      </c>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr"/>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>347.9266666666667</v>
+      </c>
+      <c r="C617" t="n">
+        <v>348.6614285714285</v>
+      </c>
+      <c r="D617" t="n">
+        <v>350.4714285714285</v>
+      </c>
+      <c r="E617" t="n">
+        <v>366.9614285714285</v>
+      </c>
+      <c r="F617" t="n">
+        <v>361.5633333333333</v>
+      </c>
+      <c r="G617" t="n">
+        <v>351</v>
+      </c>
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>340.0466666666667</v>
+      </c>
+      <c r="C618" t="n">
+        <v>338.79</v>
+      </c>
+      <c r="D618" t="n">
+        <v>341.57</v>
+      </c>
+      <c r="E618" t="n">
+        <v>349.89</v>
+      </c>
+      <c r="F618" t="n">
+        <v>348.4033333333333</v>
+      </c>
+      <c r="G618" t="n">
+        <v>342.03</v>
+      </c>
+      <c r="H618" t="n">
+        <v>344.87</v>
+      </c>
+      <c r="I618" t="n">
+        <v>354.1</v>
+      </c>
+      <c r="J618" t="n">
+        <v>342.14</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21820,7 +22153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B625"/>
+  <dimension ref="A1:B634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28078,6 +28411,96 @@
       </c>
       <c r="B625" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -28246,28 +28669,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3507208832873556</v>
+        <v>-0.3489069385554068</v>
       </c>
       <c r="J2" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K2" t="n">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06585483090714683</v>
+        <v>0.06688033292699547</v>
       </c>
       <c r="M2" t="n">
-        <v>7.536820172020523</v>
+        <v>7.510039318970984</v>
       </c>
       <c r="N2" t="n">
-        <v>94.50699111271233</v>
+        <v>93.76220886152753</v>
       </c>
       <c r="O2" t="n">
-        <v>9.721470624998686</v>
+        <v>9.683088807892217</v>
       </c>
       <c r="P2" t="n">
-        <v>351.9173614540933</v>
+        <v>351.8997888971879</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28323,28 +28746,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3849246199150241</v>
+        <v>-0.3661534701515756</v>
       </c>
       <c r="J3" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K3" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1041312685249133</v>
+        <v>0.09416264266269936</v>
       </c>
       <c r="M3" t="n">
-        <v>6.466912779348367</v>
+        <v>6.544923669842847</v>
       </c>
       <c r="N3" t="n">
-        <v>69.74456966013095</v>
+        <v>71.87562135422621</v>
       </c>
       <c r="O3" t="n">
-        <v>8.351321431972963</v>
+        <v>8.477949124300418</v>
       </c>
       <c r="P3" t="n">
-        <v>349.739692067527</v>
+        <v>349.5567278157511</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28400,28 +28823,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4765164349826345</v>
+        <v>-0.4534369477844953</v>
       </c>
       <c r="J4" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1227769782841527</v>
+        <v>0.1130912050079044</v>
       </c>
       <c r="M4" t="n">
-        <v>7.283899070302305</v>
+        <v>7.330397734977235</v>
       </c>
       <c r="N4" t="n">
-        <v>89.59721529799273</v>
+        <v>90.68171027394355</v>
       </c>
       <c r="O4" t="n">
-        <v>9.465580557894626</v>
+        <v>9.52269448601306</v>
       </c>
       <c r="P4" t="n">
-        <v>355.9271221915718</v>
+        <v>355.7035036016211</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28477,28 +28900,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2693235287557461</v>
+        <v>-0.2582981318689541</v>
       </c>
       <c r="J5" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K5" t="n">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04396689195952097</v>
+        <v>0.04100927704973978</v>
       </c>
       <c r="M5" t="n">
-        <v>7.392419244129291</v>
+        <v>7.44394168754591</v>
       </c>
       <c r="N5" t="n">
-        <v>86.97139140981632</v>
+        <v>87.73796167743461</v>
       </c>
       <c r="O5" t="n">
-        <v>9.325845345587515</v>
+        <v>9.366854417435697</v>
       </c>
       <c r="P5" t="n">
-        <v>361.0823248862141</v>
+        <v>360.9770189651304</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28548,28 +28971,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.2046096557064301</v>
+        <v>-0.1939604300936336</v>
       </c>
       <c r="J6" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K6" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02833852264533576</v>
+        <v>0.02567511267298728</v>
       </c>
       <c r="M6" t="n">
-        <v>6.929200177477653</v>
+        <v>6.985950300077057</v>
       </c>
       <c r="N6" t="n">
-        <v>80.69636584476298</v>
+        <v>81.62457476318559</v>
       </c>
       <c r="O6" t="n">
-        <v>8.983115597873768</v>
+        <v>9.034631966117136</v>
       </c>
       <c r="P6" t="n">
-        <v>355.2198809462857</v>
+        <v>355.1192160028148</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28625,28 +29048,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2682176495107474</v>
+        <v>-0.2653462427747853</v>
       </c>
       <c r="J7" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K7" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04290462030515152</v>
+        <v>0.04266535464863996</v>
       </c>
       <c r="M7" t="n">
-        <v>7.210321524840033</v>
+        <v>7.235902086426127</v>
       </c>
       <c r="N7" t="n">
-        <v>89.32039874185884</v>
+        <v>89.49756938643499</v>
       </c>
       <c r="O7" t="n">
-        <v>9.450946975930975</v>
+        <v>9.46031550142145</v>
       </c>
       <c r="P7" t="n">
-        <v>350.2058179207322</v>
+        <v>350.1787741731868</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28702,28 +29125,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2600261488968618</v>
+        <v>-0.2609451182456405</v>
       </c>
       <c r="J8" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K8" t="n">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0446341430670808</v>
+        <v>0.04548981271536412</v>
       </c>
       <c r="M8" t="n">
-        <v>6.939643441282911</v>
+        <v>6.959041686585157</v>
       </c>
       <c r="N8" t="n">
-        <v>79.23665094898621</v>
+        <v>79.3906456066761</v>
       </c>
       <c r="O8" t="n">
-        <v>8.90149711840577</v>
+        <v>8.910142849959035</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3512970504394</v>
+        <v>350.3604301897483</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28779,28 +29202,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2418075543583156</v>
+        <v>-0.258382959662503</v>
       </c>
       <c r="J9" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K9" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01901716248325913</v>
+        <v>0.0220172650356133</v>
       </c>
       <c r="M9" t="n">
-        <v>9.821564991841717</v>
+        <v>9.845978650052443</v>
       </c>
       <c r="N9" t="n">
-        <v>160.0455882308982</v>
+        <v>160.2158834803811</v>
       </c>
       <c r="O9" t="n">
-        <v>12.65091254538178</v>
+        <v>12.65764130793652</v>
       </c>
       <c r="P9" t="n">
-        <v>342.4398697936697</v>
+        <v>342.6002837771579</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28856,28 +29279,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06042900271073873</v>
+        <v>-0.09623529991922834</v>
       </c>
       <c r="J10" t="n">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K10" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001012807739440791</v>
+        <v>0.002579605456504486</v>
       </c>
       <c r="M10" t="n">
-        <v>11.23401993768335</v>
+        <v>11.29599297901318</v>
       </c>
       <c r="N10" t="n">
-        <v>196.9063639414852</v>
+        <v>198.6763450137055</v>
       </c>
       <c r="O10" t="n">
-        <v>14.03233280468665</v>
+        <v>14.09525966464277</v>
       </c>
       <c r="P10" t="n">
-        <v>339.048806004689</v>
+        <v>339.3914519589094</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28914,7 +29337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58843,6 +59266,483 @@
         </is>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-36.71151172046626,174.751001579453</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-36.71218483518107,174.7506731640158</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.712884632688514,174.7504589418345</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.71360421351546,174.75045299911307</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-36.7143084914165,174.75042574405296</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-36.71503270678866,174.75035426553467</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-36.71575468857274,174.75039577491052</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-36.71650672563596,174.75031529259095</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>-36.71722621106735,174.75045265886476</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.71144715726047,174.75080476249173</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.712109686520364,174.75041570312598</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.7128512248231,174.75028154564885</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.713585964806605,174.75013236275174</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-36.714322183872824,174.75006376098148</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-36.71505372390063,174.7500395648129</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-36.71578365411703,174.7501354123456</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-36.716514884952346,174.75026862936775</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>-36.717225516600635,174.75045625084812</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-36.711532905195156,174.75106616008782</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-36.712180552521374,174.7506584914682</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-36.71287633132969,174.75041486136806</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.71360471282119,174.75046177231</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-36.714309328898516,174.75040360464848</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-36.7150331389106,174.7503477952631</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-36.71575366465262,174.75040497852362</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-36.716501167672,174.7503470785849</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>-36.717278211589864,174.75018369530886</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.71149522831686,174.75095130402266</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.71216078907595,174.75059078128928</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.712874187811174,174.75040347923564</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.71359419912082,174.75027704070342</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-36.714314950072925,174.75025500226542</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-36.71504136406163,174.7502246369744</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-36.71576743200145,174.7502812287153</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-36.71652003575063,174.75023917183523</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.71146307139639,174.7508532756317</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.71211709785534,174.75044109440682</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.71283103277134,174.7501743263614</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.71358775875825,174.75016388244458</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-36.71431903718638,174.750146951505</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-36.71504789790008,174.7501268019708</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-36.71577981757185,174.75016989820045</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-36.716541485947246,174.75011649718508</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>-36.71724757112783,174.75034217813075</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-36.711485310347086,174.75092106966738</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-36.712244515781464,174.7508776327442</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-36.712906328743635,174.75057414900147</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.7135977315602,174.75033910707347</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-36.715051213215105,174.7500771593445</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-36.71578291394832,174.75014206556548</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>-36.71653633517893,174.75014595473516</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>-36.71724104737624,174.7503759210219</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.71146998565137,174.750874353284</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.712143289793346,174.75053082834344</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.712857813756315,174.75031653284273</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.71358773787728,174.7501635155656</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-36.71431982527323,174.75012611660324</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr"/>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-36.71150197253181,174.75097186338857</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-36.71217164054632,174.7506279587435</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.71286610635521,174.7503605665775</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.71360086724243,174.75039420274456</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-36.71431202883356,174.75033222929133</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-36.71503781027552,174.75027784939104</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.71147517700751,174.7508901788024</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-36.71214131958632,174.750524078377</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.71284783505188,174.7502635460088</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.71359001843542,174.75020358513623</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-36.71431759493571,174.75018508049192</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-36.71504449316186,174.75017778326932</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-36.71576824619551,174.75027391017673</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>-36.716467852502966,174.7505376069175</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>-36.71719630681292,174.75060733178287</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -28514,7 +28514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28605,35 +28605,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28692,27 +28697,28 @@
       <c r="P2" t="n">
         <v>351.8997888971879</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.7473652854636 -36.7103188112841, 174.7569102083783 -36.71344976355121)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7473652854636</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.7103188112841</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7569102083783</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.71344976355121</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7521377469209</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.71188428741765</v>
       </c>
     </row>
@@ -28769,27 +28775,28 @@
       <c r="P3" t="n">
         <v>349.5567278157511</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.74695892469376 -36.71110063996396, 174.75664901036257 -36.713928887804705)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7469589246938</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.71110063996396</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7566490103626</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.71392888780471</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7518039675282</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.71251476388433</v>
       </c>
     </row>
@@ -28846,27 +28853,28 @@
       <c r="P4" t="n">
         <v>355.7035036016211</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.74654065739352 -36.71214665887624, 174.75657799013038 -36.714036812035616)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7465406573935</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.71214665887624</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7565779901304</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.71403681203562</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.751559323762</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.71309173545593</v>
       </c>
     </row>
@@ -28923,27 +28931,28 @@
       <c r="P5" t="n">
         <v>360.9770189651304</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.74629676271 -36.71336759750528, 174.75658014354633 -36.71395276593043)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.74629676271</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.71336759750528</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7565801435463</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.71395276593043</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7514384531282</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.71366018171786</v>
       </c>
     </row>
@@ -28994,27 +29003,28 @@
       <c r="P6" t="n">
         <v>355.1192160028148</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.74628939132742 -36.71446488825857, 174.75658717306337 -36.71407525834939)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7462893913274</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.71446488825857</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7565871730634</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.71407525834939</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7514382821954</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.71427007330398</v>
       </c>
     </row>
@@ -29071,27 +29081,28 @@
       <c r="P7" t="n">
         <v>350.1787741731868</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.74636220305354 -36.71529925206989, 174.75663604418347 -36.71461300562288)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7463622030535</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.71529925206989</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7566360441835</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.71461300562288</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7514991236185</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.71495612884638</v>
       </c>
     </row>
@@ -29148,27 +29159,28 @@
       <c r="P8" t="n">
         <v>350.3604301897483</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7464497283781 -36.71619362622589, 174.756661691286 -36.715057422673546)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7464497283781</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.71619362622589</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.756661691286</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.71505742267355</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7515557098321</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.71562552444972</v>
       </c>
     </row>
@@ -29225,27 +29237,28 @@
       <c r="P9" t="n">
         <v>342.6002837771579</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.7466640274627 -36.71714510889615, 174.75673780947898 -36.7153835240083)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7466640274627</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.71714510889615</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.756737809479</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.7153835240083</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7517009184708</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.71626431645223</v>
       </c>
     </row>
@@ -29302,27 +29315,28 @@
       <c r="P10" t="n">
         <v>339.3914519589094</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.7468831729906 -36.71791626878963, 174.75690673708718 -36.7159781989659)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7468831729906</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.71791626878963</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7569067370872</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.7159781989659</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7518949550389</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.71694723387776</v>
       </c>
     </row>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K618"/>
+  <dimension ref="A1:K624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22137,6 +22137,226 @@
         <v>342.14</v>
       </c>
       <c r="K618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>335.07</v>
+      </c>
+      <c r="C619" t="n">
+        <v>338.4142857142857</v>
+      </c>
+      <c r="D619" t="n">
+        <v>342.2842857142857</v>
+      </c>
+      <c r="E619" t="n">
+        <v>352.1742857142857</v>
+      </c>
+      <c r="F619" t="n">
+        <v>349.45</v>
+      </c>
+      <c r="G619" t="n">
+        <v>344.61</v>
+      </c>
+      <c r="H619" t="n">
+        <v>347</v>
+      </c>
+      <c r="I619" t="n">
+        <v>352.6742857142857</v>
+      </c>
+      <c r="J619" t="n">
+        <v>347.39</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>340.0866666666667</v>
+      </c>
+      <c r="C620" t="n">
+        <v>329.14</v>
+      </c>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>359.6733333333333</v>
+      </c>
+      <c r="C621" t="n">
+        <v>355.7814285714285</v>
+      </c>
+      <c r="D621" t="n">
+        <v>362.4514285714286</v>
+      </c>
+      <c r="E621" t="n">
+        <v>367.0814285714285</v>
+      </c>
+      <c r="F621" t="n">
+        <v>362.7066666666666</v>
+      </c>
+      <c r="G621" t="n">
+        <v>355.22</v>
+      </c>
+      <c r="H621" t="n">
+        <v>347.43</v>
+      </c>
+      <c r="I621" t="n">
+        <v>333.6414285714285</v>
+      </c>
+      <c r="J621" t="n">
+        <v>320.95</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>334.6566666666667</v>
+      </c>
+      <c r="C622" t="n">
+        <v>332.3242857142857</v>
+      </c>
+      <c r="D622" t="n">
+        <v>337.9742857142857</v>
+      </c>
+      <c r="E622" t="n">
+        <v>347.2742857142857</v>
+      </c>
+      <c r="F622" t="n">
+        <v>346.9233333333333</v>
+      </c>
+      <c r="G622" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="H622" t="n">
+        <v>348.31</v>
+      </c>
+      <c r="I622" t="n">
+        <v>353.3342857142857</v>
+      </c>
+      <c r="J622" t="n">
+        <v>333.26</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>337.6133333333333</v>
+      </c>
+      <c r="C623" t="n">
+        <v>336.3357142857143</v>
+      </c>
+      <c r="D623" t="n">
+        <v>345.1157142857143</v>
+      </c>
+      <c r="E623" t="n">
+        <v>347.6557142857143</v>
+      </c>
+      <c r="F623" t="n">
+        <v>346.0466666666667</v>
+      </c>
+      <c r="G623" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="H623" t="n">
+        <v>348.85</v>
+      </c>
+      <c r="I623" t="n">
+        <v>337.3057142857143</v>
+      </c>
+      <c r="J623" t="n">
+        <v>335.38</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>338.55</v>
+      </c>
+      <c r="C624" t="n">
+        <v>339.2485714285714</v>
+      </c>
+      <c r="D624" t="n">
+        <v>340.2885714285715</v>
+      </c>
+      <c r="E624" t="n">
+        <v>350.2485714285714</v>
+      </c>
+      <c r="F624" t="n">
+        <v>346.8</v>
+      </c>
+      <c r="G624" t="n">
+        <v>338.16</v>
+      </c>
+      <c r="H624" t="n">
+        <v>338.06</v>
+      </c>
+      <c r="I624" t="n">
+        <v>318.6985714285714</v>
+      </c>
+      <c r="J624" t="n">
+        <v>326.77</v>
+      </c>
+      <c r="K624" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -22153,7 +22373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B634"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28501,6 +28721,66 @@
       </c>
       <c r="B634" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -28674,28 +28954,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3489069385554068</v>
+        <v>-0.3534536616250742</v>
       </c>
       <c r="J2" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K2" t="n">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06688033292699547</v>
+        <v>0.06943464711282488</v>
       </c>
       <c r="M2" t="n">
-        <v>7.510039318970984</v>
+        <v>7.510784583672222</v>
       </c>
       <c r="N2" t="n">
-        <v>93.76220886152753</v>
+        <v>93.56594892099628</v>
       </c>
       <c r="O2" t="n">
-        <v>9.683088807892217</v>
+        <v>9.67294933931716</v>
       </c>
       <c r="P2" t="n">
-        <v>351.8997888971879</v>
+        <v>351.9446592833463</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28752,28 +29032,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3661534701515756</v>
+        <v>-0.3697970958728393</v>
       </c>
       <c r="J3" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K3" t="n">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09416264266269936</v>
+        <v>0.09686323599697533</v>
       </c>
       <c r="M3" t="n">
-        <v>6.544923669842847</v>
+        <v>6.546220294711499</v>
       </c>
       <c r="N3" t="n">
-        <v>71.87562135422621</v>
+        <v>71.90304663796734</v>
       </c>
       <c r="O3" t="n">
-        <v>8.477949124300418</v>
+        <v>8.479566418040921</v>
       </c>
       <c r="P3" t="n">
-        <v>349.5567278157511</v>
+        <v>349.592592172126</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28830,28 +29110,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4534369477844953</v>
+        <v>-0.4504877568865822</v>
       </c>
       <c r="J4" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1130912050079044</v>
+        <v>0.1129060854927565</v>
       </c>
       <c r="M4" t="n">
-        <v>7.330397734977235</v>
+        <v>7.319598359260929</v>
       </c>
       <c r="N4" t="n">
-        <v>90.68171027394355</v>
+        <v>90.55804800779757</v>
       </c>
       <c r="O4" t="n">
-        <v>9.52269448601306</v>
+        <v>9.516199241703463</v>
       </c>
       <c r="P4" t="n">
-        <v>355.7035036016211</v>
+        <v>355.6746607649241</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28908,28 +29188,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2582981318689541</v>
+        <v>-0.2610855621963574</v>
       </c>
       <c r="J5" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K5" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04100927704973978</v>
+        <v>0.04244036164769005</v>
       </c>
       <c r="M5" t="n">
-        <v>7.44394168754591</v>
+        <v>7.433867092698058</v>
       </c>
       <c r="N5" t="n">
-        <v>87.73796167743461</v>
+        <v>87.41292120464263</v>
       </c>
       <c r="O5" t="n">
-        <v>9.366854417435697</v>
+        <v>9.349487750922114</v>
       </c>
       <c r="P5" t="n">
-        <v>360.9770189651304</v>
+        <v>361.004092949272</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28980,28 +29260,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.1939604300936336</v>
+        <v>-0.1935115201364436</v>
       </c>
       <c r="J6" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K6" t="n">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02567511267298728</v>
+        <v>0.02595179931174929</v>
       </c>
       <c r="M6" t="n">
-        <v>6.985950300077057</v>
+        <v>6.963875642977277</v>
       </c>
       <c r="N6" t="n">
-        <v>81.62457476318559</v>
+        <v>81.19522759728449</v>
       </c>
       <c r="O6" t="n">
-        <v>9.034631966117136</v>
+        <v>9.010839450200214</v>
       </c>
       <c r="P6" t="n">
-        <v>355.1192160028148</v>
+        <v>355.1150113760023</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29058,28 +29338,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2653462427747853</v>
+        <v>-0.2633498199194091</v>
       </c>
       <c r="J7" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K7" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04266535464863996</v>
+        <v>0.04274568255237632</v>
       </c>
       <c r="M7" t="n">
-        <v>7.235902086426127</v>
+        <v>7.204851372468998</v>
       </c>
       <c r="N7" t="n">
-        <v>89.49756938643499</v>
+        <v>88.93972219729922</v>
       </c>
       <c r="O7" t="n">
-        <v>9.46031550142145</v>
+        <v>9.430785873791176</v>
       </c>
       <c r="P7" t="n">
-        <v>350.1787741731868</v>
+        <v>350.1597245330699</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29136,28 +29416,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2609451182456405</v>
+        <v>-0.2566698409502418</v>
       </c>
       <c r="J8" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K8" t="n">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04548981271536412</v>
+        <v>0.04483450114994525</v>
       </c>
       <c r="M8" t="n">
-        <v>6.959041686585157</v>
+        <v>6.935635885135186</v>
       </c>
       <c r="N8" t="n">
-        <v>79.3906456066761</v>
+        <v>78.80783416800072</v>
       </c>
       <c r="O8" t="n">
-        <v>8.910142849959035</v>
+        <v>8.877377662801145</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3604301897483</v>
+        <v>350.3187259784515</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29214,28 +29494,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.258382959662503</v>
+        <v>-0.2518410112024117</v>
       </c>
       <c r="J9" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K9" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0220172650356133</v>
+        <v>0.02117783111105054</v>
       </c>
       <c r="M9" t="n">
-        <v>9.845978650052443</v>
+        <v>9.854087364591765</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2158834803811</v>
+        <v>160.3895256195395</v>
       </c>
       <c r="O9" t="n">
-        <v>12.65764130793652</v>
+        <v>12.6644986327742</v>
       </c>
       <c r="P9" t="n">
-        <v>342.6002837771579</v>
+        <v>342.5366714967921</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29292,28 +29572,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09623529991922834</v>
+        <v>-0.1049595241128679</v>
       </c>
       <c r="J10" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K10" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002579605456504486</v>
+        <v>0.003121857597831235</v>
       </c>
       <c r="M10" t="n">
-        <v>11.29599297901318</v>
+        <v>11.26526644223803</v>
       </c>
       <c r="N10" t="n">
-        <v>198.6763450137055</v>
+        <v>197.568146866434</v>
       </c>
       <c r="O10" t="n">
-        <v>14.09525966464277</v>
+        <v>14.05589367014542</v>
       </c>
       <c r="P10" t="n">
-        <v>339.3914519589094</v>
+        <v>339.4760783727625</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29351,7 +29631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K618"/>
+  <dimension ref="A1:K624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59757,6 +60037,320 @@
         </is>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-36.71145825408531,174.7508385903843</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-36.71214016554505,174.7505201246106</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-36.712849301216245,174.75027133132005</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-36.713591470105285,174.75022909120545</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-36.714317152248306,174.75019678381693</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-36.715042571002456,174.75020656483156</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-36.71576561856764,174.75029752909612</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-36.71647057959257,174.7505220108549</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>-36.717185258392945,174.75066447691736</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-36.71147531302554,174.7508905934448</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-36.712111678673715,174.7504225282537</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-36.71154191634501,174.75109363019166</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-36.712193510194034,174.7507028849495</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-36.712890696687225,174.7504911419124</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-36.713600943500744,174.7503955426509</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-36.71431154524521,174.75034501349418</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-36.71503466623537,174.75032492619917</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-36.715765088107,174.75030229723453</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>-36.716506985226,174.75031380799425</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>-36.71724090006561,174.75037668295812</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-36.711456848563614,174.75083430574773</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-36.71212145952649,174.7504560375311</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-36.712840454372625,174.75022435475606</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-36.713588356135034,174.75017437837496</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>-36.71431822089938,174.75016853184096</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-36.715044962525305,174.75017075521316</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>-36.7157640025125,174.75031205528506</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>-36.716469317152544,174.7505292306756</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>-36.71721499436459,174.75051067483002</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-36.71146690257421,174.75086495472382</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-36.71213378101773,174.75049825111424</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>-36.7128551130867,174.75030219229663</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>-36.71358859853537,174.75017863736193</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>-36.71431859168308,174.7501587293741</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>-36.71504399399711,174.75018525755115</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>-36.715763336351856,174.75031804317956</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>-36.71649997628826,174.75035389210112</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>-36.71721053292911,174.75053375059358</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-36.71147008766495,174.75087466426578</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-36.71214272813081,174.7505289040768</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-36.71284520475174,174.75024957916105</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-36.71359024630891,174.75020758890315</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-36.71431827306291,174.7501671527867</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-36.71504737638798,174.75013461092277</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-36.71577664717173,174.75019839615476</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>-36.71653556734495,174.7501503460194</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>-36.71722865222223,174.75044003249846</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K624"/>
+  <dimension ref="A1:K627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22359,6 +22359,123 @@
       <c r="K624" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>324.3933333333333</v>
+      </c>
+      <c r="C625" t="n">
+        <v>323.8971428571429</v>
+      </c>
+      <c r="D625" t="n">
+        <v>329.0371428571428</v>
+      </c>
+      <c r="E625" t="n">
+        <v>340.1571428571428</v>
+      </c>
+      <c r="F625" t="n">
+        <v>350.8266666666667</v>
+      </c>
+      <c r="G625" t="n">
+        <v>356.19</v>
+      </c>
+      <c r="H625" t="n">
+        <v>360.78</v>
+      </c>
+      <c r="I625" t="n">
+        <v>358.3471428571428</v>
+      </c>
+      <c r="J625" t="n">
+        <v>337.76</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>332.0666666666667</v>
+      </c>
+      <c r="C626" t="n">
+        <v>333.8957142857143</v>
+      </c>
+      <c r="D626" t="n">
+        <v>343.8457142857143</v>
+      </c>
+      <c r="E626" t="n">
+        <v>357.5157142857143</v>
+      </c>
+      <c r="F626" t="n">
+        <v>357.7233333333333</v>
+      </c>
+      <c r="G626" t="n">
+        <v>350.77</v>
+      </c>
+      <c r="H626" t="n">
+        <v>356.01</v>
+      </c>
+      <c r="I626" t="n">
+        <v>355.5857142857143</v>
+      </c>
+      <c r="J626" t="n">
+        <v>345.7</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>343.6066666666667</v>
+      </c>
+      <c r="C627" t="n">
+        <v>334.2942857142857</v>
+      </c>
+      <c r="D627" t="n">
+        <v>335.1142857142857</v>
+      </c>
+      <c r="E627" t="n">
+        <v>346.6742857142857</v>
+      </c>
+      <c r="F627" t="n">
+        <v>341.3333333333334</v>
+      </c>
+      <c r="G627" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="H627" t="n">
+        <v>333.25</v>
+      </c>
+      <c r="I627" t="n">
+        <v>319.8042857142857</v>
+      </c>
+      <c r="J627" t="n">
+        <v>322.68</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22373,7 +22490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28781,6 +28898,36 @@
       </c>
       <c r="B640" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -28954,28 +29101,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3534536616250742</v>
+        <v>-0.3641489302522345</v>
       </c>
       <c r="J2" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K2" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06943464711282488</v>
+        <v>0.07355336744948182</v>
       </c>
       <c r="M2" t="n">
-        <v>7.510784583672222</v>
+        <v>7.525928654406911</v>
       </c>
       <c r="N2" t="n">
-        <v>93.56594892099628</v>
+        <v>93.90788959075938</v>
       </c>
       <c r="O2" t="n">
-        <v>9.67294933931716</v>
+        <v>9.690608318921955</v>
       </c>
       <c r="P2" t="n">
-        <v>351.9446592833463</v>
+        <v>352.0508996424268</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29032,28 +29179,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3697970958728393</v>
+        <v>-0.3803044364574658</v>
       </c>
       <c r="J3" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K3" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09686323599697533</v>
+        <v>0.1021311259751589</v>
       </c>
       <c r="M3" t="n">
-        <v>6.546220294711499</v>
+        <v>6.557629089358142</v>
       </c>
       <c r="N3" t="n">
-        <v>71.90304663796734</v>
+        <v>72.12803050505705</v>
       </c>
       <c r="O3" t="n">
-        <v>8.479566418040921</v>
+        <v>8.492822293269597</v>
       </c>
       <c r="P3" t="n">
-        <v>349.592592172126</v>
+        <v>349.6968065910921</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29110,28 +29257,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4504877568865822</v>
+        <v>-0.4595538437896489</v>
       </c>
       <c r="J4" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1129060854927565</v>
+        <v>0.1175012781064861</v>
       </c>
       <c r="M4" t="n">
-        <v>7.319598359260929</v>
+        <v>7.321372455396701</v>
       </c>
       <c r="N4" t="n">
-        <v>90.55804800779757</v>
+        <v>90.6185933375443</v>
       </c>
       <c r="O4" t="n">
-        <v>9.516199241703463</v>
+        <v>9.519379881985186</v>
       </c>
       <c r="P4" t="n">
-        <v>355.6746607649241</v>
+        <v>355.7641536968669</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29188,28 +29335,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2610855621963574</v>
+        <v>-0.2680520690133665</v>
       </c>
       <c r="J5" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K5" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04244036164769005</v>
+        <v>0.04490204414277887</v>
       </c>
       <c r="M5" t="n">
-        <v>7.433867092698058</v>
+        <v>7.436575440697241</v>
       </c>
       <c r="N5" t="n">
-        <v>87.41292120464263</v>
+        <v>87.41861250998342</v>
       </c>
       <c r="O5" t="n">
-        <v>9.349487750922114</v>
+        <v>9.349792110522213</v>
       </c>
       <c r="P5" t="n">
-        <v>361.004092949272</v>
+        <v>361.0719487385184</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29260,28 +29407,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.1935115201364436</v>
+        <v>-0.1936926034491286</v>
       </c>
       <c r="J6" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K6" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02595179931174929</v>
+        <v>0.02622536047769719</v>
       </c>
       <c r="M6" t="n">
-        <v>6.963875642977277</v>
+        <v>6.956096158952791</v>
       </c>
       <c r="N6" t="n">
-        <v>81.19522759728449</v>
+        <v>80.97715779504253</v>
       </c>
       <c r="O6" t="n">
-        <v>9.010839450200214</v>
+        <v>8.998730899134751</v>
       </c>
       <c r="P6" t="n">
-        <v>355.1150113760023</v>
+        <v>355.1168018455052</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29338,28 +29485,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2633498199194091</v>
+        <v>-0.2587050142254978</v>
       </c>
       <c r="J7" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K7" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04274568255237632</v>
+        <v>0.04155599262422804</v>
       </c>
       <c r="M7" t="n">
-        <v>7.204851372468998</v>
+        <v>7.218511479960188</v>
       </c>
       <c r="N7" t="n">
-        <v>88.93972219729922</v>
+        <v>88.97082115798852</v>
       </c>
       <c r="O7" t="n">
-        <v>9.430785873791176</v>
+        <v>9.432434529748326</v>
       </c>
       <c r="P7" t="n">
-        <v>350.1597245330699</v>
+        <v>350.1149244747517</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29416,28 +29563,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2566698409502418</v>
+        <v>-0.2495661656406494</v>
       </c>
       <c r="J8" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K8" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04483450114994525</v>
+        <v>0.04242691870916226</v>
       </c>
       <c r="M8" t="n">
-        <v>6.935635885135186</v>
+        <v>6.974939300586348</v>
       </c>
       <c r="N8" t="n">
-        <v>78.80783416800072</v>
+        <v>79.42952225015091</v>
       </c>
       <c r="O8" t="n">
-        <v>8.877377662801145</v>
+        <v>8.912324177797332</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3187259784515</v>
+        <v>350.2489501870724</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29494,28 +29641,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2518410112024117</v>
+        <v>-0.2412289429481085</v>
       </c>
       <c r="J9" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K9" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02117783111105054</v>
+        <v>0.0194453097616919</v>
       </c>
       <c r="M9" t="n">
-        <v>9.854087364591765</v>
+        <v>9.907085292126945</v>
       </c>
       <c r="N9" t="n">
-        <v>160.3895256195395</v>
+        <v>161.7654280062502</v>
       </c>
       <c r="O9" t="n">
-        <v>12.6644986327742</v>
+        <v>12.7187038650269</v>
       </c>
       <c r="P9" t="n">
-        <v>342.5366714967921</v>
+        <v>342.4323167653529</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29572,28 +29719,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1049595241128679</v>
+        <v>-0.1066915780717422</v>
       </c>
       <c r="J10" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K10" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003121857597831235</v>
+        <v>0.003259883376179329</v>
       </c>
       <c r="M10" t="n">
-        <v>11.26526644223803</v>
+        <v>11.244697001122</v>
       </c>
       <c r="N10" t="n">
-        <v>197.568146866434</v>
+        <v>196.8949847170885</v>
       </c>
       <c r="O10" t="n">
-        <v>14.05589367014542</v>
+        <v>14.03192733437173</v>
       </c>
       <c r="P10" t="n">
-        <v>339.4760783727625</v>
+        <v>339.4930293855859</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29631,7 +29778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K624"/>
+  <dimension ref="A1:K627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60351,6 +60498,177 @@
         </is>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.71142194850211,174.7507279155062</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.712095574691325,174.75036735597538</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.71282210964776,174.75012694498224</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.7135838331163,174.75009490919106</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-36.714316569985755,174.75021217704352</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-36.715033943550544,174.75033574717102</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-36.71574861906003,174.75045033126358</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>-36.71645972860581,174.75058406692457</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>-36.717205524331185,174.75055965640018</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.711448041379676,174.75080745766567</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.712126286323326,174.75047257418964</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.712852506249746,174.75028835001143</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.71359486457642,174.75028873297995</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.714313653003714,174.7502892922586</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-36.71503798163263,174.7502752835933</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-36.71575450352698,174.75039743821412</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>-36.716465010643894,174.75055385932615</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>-36.71718881493491,174.75064608162836</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.71148728260685,174.7509270819843</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-36.712127510574135,174.75047676848789</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-36.7128345838349,174.7501931823781</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.713587974830816,174.75016767884495</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-36.71432058516035,174.7501060271357</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-36.71504945498319,174.75010348667053</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-36.715782580872265,174.75014505951438</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>-36.71653345238503,174.75016244158493</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>-36.717237259387105,174.75039551366564</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K627"/>
+  <dimension ref="A1:K629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22474,6 +22474,82 @@
         <v>322.68</v>
       </c>
       <c r="K627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>351.44</v>
+      </c>
+      <c r="C628" t="n">
+        <v>342.2471428571428</v>
+      </c>
+      <c r="D628" t="n">
+        <v>344.0571428571428</v>
+      </c>
+      <c r="E628" t="n">
+        <v>362.1971428571428</v>
+      </c>
+      <c r="F628" t="n">
+        <v>351.03</v>
+      </c>
+      <c r="G628" t="n">
+        <v>354.08</v>
+      </c>
+      <c r="H628" t="n">
+        <v>345.8</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>330.62</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>319.9066666666667</v>
+      </c>
+      <c r="C629" t="n">
+        <v>320.4471428571428</v>
+      </c>
+      <c r="D629" t="n">
+        <v>335.8271428571429</v>
+      </c>
+      <c r="E629" t="n">
+        <v>347.1871428571428</v>
+      </c>
+      <c r="F629" t="n">
+        <v>346.3533333333333</v>
+      </c>
+      <c r="G629" t="n">
+        <v>340.89</v>
+      </c>
+      <c r="H629" t="n">
+        <v>348.52</v>
+      </c>
+      <c r="I629" t="n">
+        <v>355.7571428571428</v>
+      </c>
+      <c r="J629" t="n">
+        <v>338.05</v>
+      </c>
+      <c r="K629" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22490,7 +22566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28928,6 +29004,26 @@
       </c>
       <c r="B643" t="n">
         <v>1.04</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -29101,28 +29197,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3641489302522345</v>
+        <v>-0.369372458466193</v>
       </c>
       <c r="J2" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K2" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07355336744948182</v>
+        <v>0.07519760296075439</v>
       </c>
       <c r="M2" t="n">
-        <v>7.525928654406911</v>
+        <v>7.559403483378696</v>
       </c>
       <c r="N2" t="n">
-        <v>93.90788959075938</v>
+        <v>94.71722803154556</v>
       </c>
       <c r="O2" t="n">
-        <v>9.690608318921955</v>
+        <v>9.73227763843313</v>
       </c>
       <c r="P2" t="n">
-        <v>352.0508996424268</v>
+        <v>352.1030171276951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29179,28 +29275,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3803044364574658</v>
+        <v>-0.3866491661708073</v>
       </c>
       <c r="J3" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K3" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1021311259751589</v>
+        <v>0.1049494325879491</v>
       </c>
       <c r="M3" t="n">
-        <v>6.557629089358142</v>
+        <v>6.572164873077847</v>
       </c>
       <c r="N3" t="n">
-        <v>72.12803050505705</v>
+        <v>72.60431383318618</v>
       </c>
       <c r="O3" t="n">
-        <v>8.492822293269597</v>
+        <v>8.520816500382237</v>
       </c>
       <c r="P3" t="n">
-        <v>349.6968065910921</v>
+        <v>349.7599586710786</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29257,28 +29353,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4595538437896489</v>
+        <v>-0.462491761472807</v>
       </c>
       <c r="J4" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K4" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1175012781064861</v>
+        <v>0.1195101276638822</v>
       </c>
       <c r="M4" t="n">
-        <v>7.321372455396701</v>
+        <v>7.307536157118609</v>
       </c>
       <c r="N4" t="n">
-        <v>90.6185933375443</v>
+        <v>90.38091223360581</v>
       </c>
       <c r="O4" t="n">
-        <v>9.519379881985186</v>
+        <v>9.506887620751904</v>
       </c>
       <c r="P4" t="n">
-        <v>355.7641536968669</v>
+        <v>355.7932517501009</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29335,28 +29431,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2680520690133665</v>
+        <v>-0.2676396074168831</v>
       </c>
       <c r="J5" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K5" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04490204414277887</v>
+        <v>0.04500880453954625</v>
       </c>
       <c r="M5" t="n">
-        <v>7.436575440697241</v>
+        <v>7.436979413140405</v>
       </c>
       <c r="N5" t="n">
-        <v>87.41861250998342</v>
+        <v>87.29528771654172</v>
       </c>
       <c r="O5" t="n">
-        <v>9.349792110522213</v>
+        <v>9.343194727529857</v>
       </c>
       <c r="P5" t="n">
-        <v>361.0719487385184</v>
+        <v>361.0679499768502</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29407,28 +29503,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.1936926034491286</v>
+        <v>-0.1947435457052996</v>
       </c>
       <c r="J6" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K6" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02622536047769719</v>
+        <v>0.02670283014983577</v>
       </c>
       <c r="M6" t="n">
-        <v>6.956096158952791</v>
+        <v>6.936863521329229</v>
       </c>
       <c r="N6" t="n">
-        <v>80.97715779504253</v>
+        <v>80.68178613621744</v>
       </c>
       <c r="O6" t="n">
-        <v>8.998730899134751</v>
+        <v>8.982304054985972</v>
       </c>
       <c r="P6" t="n">
-        <v>355.1168018455052</v>
+        <v>355.1269815928016</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29485,28 +29581,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2587050142254978</v>
+        <v>-0.2556421774197963</v>
       </c>
       <c r="J7" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K7" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04155599262422804</v>
+        <v>0.04083436196819745</v>
       </c>
       <c r="M7" t="n">
-        <v>7.218511479960188</v>
+        <v>7.21639443395529</v>
       </c>
       <c r="N7" t="n">
-        <v>88.97082115798852</v>
+        <v>88.85334720289603</v>
       </c>
       <c r="O7" t="n">
-        <v>9.432434529748326</v>
+        <v>9.426205344829702</v>
       </c>
       <c r="P7" t="n">
-        <v>350.1149244747517</v>
+        <v>350.0852705021367</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29563,28 +29659,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2495661656406494</v>
+        <v>-0.247053113306586</v>
       </c>
       <c r="J8" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K8" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04242691870916226</v>
+        <v>0.04190854062108162</v>
       </c>
       <c r="M8" t="n">
-        <v>6.974939300586348</v>
+        <v>6.961127259560278</v>
       </c>
       <c r="N8" t="n">
-        <v>79.42952225015091</v>
+        <v>79.16776492856609</v>
       </c>
       <c r="O8" t="n">
-        <v>8.912324177797332</v>
+        <v>8.897626926802792</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2489501870724</v>
+        <v>350.2241557879373</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29641,28 +29737,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2412289429481085</v>
+        <v>-0.2331142086477626</v>
       </c>
       <c r="J9" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K9" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0194453097616919</v>
+        <v>0.01817644474225455</v>
       </c>
       <c r="M9" t="n">
-        <v>9.907085292126945</v>
+        <v>9.922280422510457</v>
       </c>
       <c r="N9" t="n">
-        <v>161.7654280062502</v>
+        <v>162.2219582184031</v>
       </c>
       <c r="O9" t="n">
-        <v>12.7187038650269</v>
+        <v>12.73663841908072</v>
       </c>
       <c r="P9" t="n">
-        <v>342.4323167653529</v>
+        <v>342.3521612798421</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29719,28 +29815,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1066915780717422</v>
+        <v>-0.1086528560911354</v>
       </c>
       <c r="J10" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K10" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003259883376179329</v>
+        <v>0.003409477439385911</v>
       </c>
       <c r="M10" t="n">
-        <v>11.244697001122</v>
+        <v>11.21309522895557</v>
       </c>
       <c r="N10" t="n">
-        <v>196.8949847170885</v>
+        <v>196.1368011333749</v>
       </c>
       <c r="O10" t="n">
-        <v>14.03192733437173</v>
+        <v>14.00488490253936</v>
       </c>
       <c r="P10" t="n">
-        <v>339.4930293855859</v>
+        <v>339.5121630811268</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29778,7 +29874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K627"/>
+  <dimension ref="A1:K629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31383,7 +31479,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-36.717214804964115,174.75051165446155</t>
+          <t>-36.71721480496412,174.75051165446155</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -32651,7 +32747,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-36.714311952700214,174.75033424196468</t>
+          <t>-36.71431195270022,174.75033424196468</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -34307,7 +34403,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-36.713604391449934,174.75045612556139</t>
+          <t>-36.71360439144994,174.75045612556139</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -42659,7 +42755,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>-36.71649040968156,174.75040860337825</t>
+          <t>-36.716490409681555,174.75040860337825</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -42696,7 +42792,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>-36.71359439158558,174.7502804223714</t>
+          <t>-36.71359439158559,174.7502804223714</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -49958,7 +50054,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>-36.71717730351384,174.7507056214034</t>
+          <t>-36.717177303513836,174.7507056214034</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -55721,7 +55817,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>-36.711416145039706,174.75071022412072</t>
+          <t>-36.71141614503971,174.75071022412072</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -56135,7 +56231,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>-36.71284361249563,174.75024112431387</t>
+          <t>-36.712843612495625,174.75024112431387</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -58665,7 +58761,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>-36.715764298583814,174.75030939399858</t>
+          <t>-36.71576429858381,174.75030939399858</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -60669,6 +60765,116 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.71151391941787,174.75100828284528</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.712151938514886,174.75056045904634</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.71285294023395,174.7502906544638</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.71359783959368,174.75034100527398</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-36.71431648398555,174.7502144506193</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-36.71503551557507,174.75031220876807</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-36.71576709892194,174.75028422266288</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>-36.71722055010827,174.75048193896956</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.711406691737736,174.75068140651786</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-36.71208497764227,174.75033105052364</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-36.712836047071605,174.75020095211624</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.713588300755156,174.75017340534797</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-36.71431846197936,174.7501621583739</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-36.7150453424859,174.75016506583432</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-36.715763743450076,174.75031438391073</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-36.71646468273695,174.75055573460398</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>-36.717204914039456,174.75056281298984</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K629"/>
+  <dimension ref="A1:K630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22552,6 +22552,45 @@
       <c r="K629" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>343.2233333333333</v>
+      </c>
+      <c r="C630" t="n">
+        <v>351.9385714285714</v>
+      </c>
+      <c r="D630" t="n">
+        <v>347.6885714285714</v>
+      </c>
+      <c r="E630" t="n">
+        <v>361.8485714285715</v>
+      </c>
+      <c r="F630" t="n">
+        <v>353.6766666666667</v>
+      </c>
+      <c r="G630" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="H630" t="n">
+        <v>345.38</v>
+      </c>
+      <c r="I630" t="n">
+        <v>318.8285714285714</v>
+      </c>
+      <c r="J630" t="n">
+        <v>324.66</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22566,7 +22605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B645"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29024,6 +29063,16 @@
       </c>
       <c r="B645" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -29197,28 +29246,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.369372458466193</v>
+        <v>-0.3691142361578013</v>
       </c>
       <c r="J2" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07519760296075439</v>
+        <v>0.07537601583745546</v>
       </c>
       <c r="M2" t="n">
-        <v>7.559403483378696</v>
+        <v>7.54566011843464</v>
       </c>
       <c r="N2" t="n">
-        <v>94.71722803154556</v>
+        <v>94.52911943740806</v>
       </c>
       <c r="O2" t="n">
-        <v>9.73227763843313</v>
+        <v>9.722608674497193</v>
       </c>
       <c r="P2" t="n">
-        <v>352.1030171276951</v>
+        <v>352.1004396868671</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29275,28 +29324,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3866491661708073</v>
+        <v>-0.3821201497028744</v>
       </c>
       <c r="J3" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1049494325879491</v>
+        <v>0.1027403962475582</v>
       </c>
       <c r="M3" t="n">
-        <v>6.572164873077847</v>
+        <v>6.585438199678095</v>
       </c>
       <c r="N3" t="n">
-        <v>72.60431383318618</v>
+        <v>72.75578997413692</v>
       </c>
       <c r="O3" t="n">
-        <v>8.520816500382237</v>
+        <v>8.529700462157914</v>
       </c>
       <c r="P3" t="n">
-        <v>349.7599586710786</v>
+        <v>349.7148355337753</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29353,28 +29402,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.462491761472807</v>
+        <v>-0.4610474475706853</v>
       </c>
       <c r="J4" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1195101276638822</v>
+        <v>0.1192317060658589</v>
       </c>
       <c r="M4" t="n">
-        <v>7.307536157118609</v>
+        <v>7.300908850897097</v>
       </c>
       <c r="N4" t="n">
-        <v>90.38091223360581</v>
+        <v>90.22792186560598</v>
       </c>
       <c r="O4" t="n">
-        <v>9.506887620751904</v>
+        <v>9.498837921851598</v>
       </c>
       <c r="P4" t="n">
-        <v>355.7932517501009</v>
+        <v>355.7789309146834</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29431,28 +29480,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2676396074168831</v>
+        <v>-0.2647514593540152</v>
       </c>
       <c r="J5" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K5" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04500880453954625</v>
+        <v>0.04419925595835827</v>
       </c>
       <c r="M5" t="n">
-        <v>7.436979413140405</v>
+        <v>7.43844869022716</v>
       </c>
       <c r="N5" t="n">
-        <v>87.29528771654172</v>
+        <v>87.239146662937</v>
       </c>
       <c r="O5" t="n">
-        <v>9.343194727529857</v>
+        <v>9.340189862253176</v>
       </c>
       <c r="P5" t="n">
-        <v>361.0679499768502</v>
+        <v>361.039689609656</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29503,28 +29552,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.1947435457052996</v>
+        <v>-0.193412326654465</v>
       </c>
       <c r="J6" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K6" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02670283014983577</v>
+        <v>0.02644359043713373</v>
       </c>
       <c r="M6" t="n">
-        <v>6.936863521329229</v>
+        <v>6.9309822225447</v>
       </c>
       <c r="N6" t="n">
-        <v>80.68178613621744</v>
+        <v>80.54585340289523</v>
       </c>
       <c r="O6" t="n">
-        <v>8.982304054985972</v>
+        <v>8.97473416892641</v>
       </c>
       <c r="P6" t="n">
-        <v>355.1269815928016</v>
+        <v>355.1140772115013</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29581,28 +29630,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2556421774197963</v>
+        <v>-0.2541228453717808</v>
       </c>
       <c r="J7" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K7" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04083436196819745</v>
+        <v>0.04051501005876057</v>
       </c>
       <c r="M7" t="n">
-        <v>7.21639443395529</v>
+        <v>7.210196154133267</v>
       </c>
       <c r="N7" t="n">
-        <v>88.85334720289603</v>
+        <v>88.70748003386522</v>
       </c>
       <c r="O7" t="n">
-        <v>9.426205344829702</v>
+        <v>9.418464844860081</v>
       </c>
       <c r="P7" t="n">
-        <v>350.0852705021367</v>
+        <v>350.070522815352</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29659,28 +29708,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.247053113306586</v>
+        <v>-0.24647430660531</v>
       </c>
       <c r="J8" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K8" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04190854062108162</v>
+        <v>0.04187862045792567</v>
       </c>
       <c r="M8" t="n">
-        <v>6.961127259560278</v>
+        <v>6.950565947619776</v>
       </c>
       <c r="N8" t="n">
-        <v>79.16776492856609</v>
+        <v>79.01666805755848</v>
       </c>
       <c r="O8" t="n">
-        <v>8.897626926802792</v>
+        <v>8.889132019357035</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2241557879373</v>
+        <v>350.2184370469503</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29737,28 +29786,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2331142086477626</v>
+        <v>-0.240330131203818</v>
       </c>
       <c r="J9" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K9" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01817644474225455</v>
+        <v>0.01930939196450132</v>
       </c>
       <c r="M9" t="n">
-        <v>9.922280422510457</v>
+        <v>9.942203951449187</v>
       </c>
       <c r="N9" t="n">
-        <v>162.2219582184031</v>
+        <v>162.5165927081788</v>
       </c>
       <c r="O9" t="n">
-        <v>12.73663841908072</v>
+        <v>12.74819958692908</v>
       </c>
       <c r="P9" t="n">
-        <v>342.3521612798421</v>
+        <v>342.4235108594646</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29815,28 +29864,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1086528560911354</v>
+        <v>-0.113567138786355</v>
       </c>
       <c r="J10" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K10" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003409477439385911</v>
+        <v>0.003734491890933667</v>
       </c>
       <c r="M10" t="n">
-        <v>11.21309522895557</v>
+        <v>11.21627539651119</v>
       </c>
       <c r="N10" t="n">
-        <v>196.1368011333749</v>
+        <v>196.0254896236075</v>
       </c>
       <c r="O10" t="n">
-        <v>14.00488490253936</v>
+        <v>14.00091031410485</v>
       </c>
       <c r="P10" t="n">
-        <v>339.5121630811268</v>
+        <v>339.5602224870199</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29874,7 +29923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K629"/>
+  <dimension ref="A1:K630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60875,6 +60924,63 @@
         </is>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.71148597910187,174.75092310832653</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.71218170655793,174.75066244523853</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.71286039419904,174.75033023499404</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.71359761807961,174.75033711316533</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-36.714315364569046,174.750244044376</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-36.71504041787769,174.75023880464144</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-36.7157676170456,174.7502795654111</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-36.71653531868692,174.7501517681079</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-36.71723309259541,174.75041706557136</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K630"/>
+  <dimension ref="A1:K633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22591,6 +22591,119 @@
       <c r="K630" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>328.4733333333333</v>
+      </c>
+      <c r="C631" t="n">
+        <v>324.2428571428572</v>
+      </c>
+      <c r="D631" t="n">
+        <v>334.0928571428572</v>
+      </c>
+      <c r="E631" t="n">
+        <v>352.7928571428571</v>
+      </c>
+      <c r="F631" t="n">
+        <v>339.3266666666667</v>
+      </c>
+      <c r="G631" t="n">
+        <v>336.12</v>
+      </c>
+      <c r="H631" t="n">
+        <v>331.04</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>297.77</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>343.2633333333333</v>
+      </c>
+      <c r="C632" t="n">
+        <v>338.8128571428572</v>
+      </c>
+      <c r="D632" t="n">
+        <v>344.2928571428571</v>
+      </c>
+      <c r="E632" t="n">
+        <v>355.9928571428572</v>
+      </c>
+      <c r="F632" t="n">
+        <v>359.0466666666667</v>
+      </c>
+      <c r="G632" t="n">
+        <v>364.75</v>
+      </c>
+      <c r="H632" t="n">
+        <v>369.55</v>
+      </c>
+      <c r="I632" t="n">
+        <v>348.4228571428571</v>
+      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>337.6566666666667</v>
+      </c>
+      <c r="C633" t="n">
+        <v>333.3728571428572</v>
+      </c>
+      <c r="D633" t="n">
+        <v>334.2128571428572</v>
+      </c>
+      <c r="E633" t="n">
+        <v>350.4528571428572</v>
+      </c>
+      <c r="F633" t="n">
+        <v>345.3633333333333</v>
+      </c>
+      <c r="G633" t="n">
+        <v>340.48</v>
+      </c>
+      <c r="H633" t="n">
+        <v>334.11</v>
+      </c>
+      <c r="I633" t="n">
+        <v>310.5328571428572</v>
+      </c>
+      <c r="J633" t="n">
+        <v>300.18</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22605,7 +22718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B646"/>
+  <dimension ref="A1:B649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29073,6 +29186,36 @@
       </c>
       <c r="B646" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -29246,28 +29389,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3691142361578013</v>
+        <v>-0.3758183412069128</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07537601583745546</v>
+        <v>0.07845142360914148</v>
       </c>
       <c r="M2" t="n">
-        <v>7.54566011843464</v>
+        <v>7.54036234909835</v>
       </c>
       <c r="N2" t="n">
-        <v>94.52911943740806</v>
+        <v>94.40085530559466</v>
       </c>
       <c r="O2" t="n">
-        <v>9.722608674497193</v>
+        <v>9.7160102565608</v>
       </c>
       <c r="P2" t="n">
-        <v>352.1004396868671</v>
+        <v>352.1676627768509</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29324,28 +29467,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3821201497028744</v>
+        <v>-0.3905478592589445</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K3" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1027403962475582</v>
+        <v>0.1072225070494436</v>
       </c>
       <c r="M3" t="n">
-        <v>6.585438199678095</v>
+        <v>6.587618059986129</v>
       </c>
       <c r="N3" t="n">
-        <v>72.75578997413692</v>
+        <v>72.87973232032547</v>
       </c>
       <c r="O3" t="n">
-        <v>8.529700462157914</v>
+        <v>8.536962710491681</v>
       </c>
       <c r="P3" t="n">
-        <v>349.7148355337753</v>
+        <v>349.7991966825287</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29402,28 +29545,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4610474475706853</v>
+        <v>-0.4679755031982695</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K4" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1192317060658589</v>
+        <v>0.1232324229885791</v>
       </c>
       <c r="M4" t="n">
-        <v>7.300908850897097</v>
+        <v>7.295422856272401</v>
       </c>
       <c r="N4" t="n">
-        <v>90.22792186560598</v>
+        <v>90.0528365628372</v>
       </c>
       <c r="O4" t="n">
-        <v>9.498837921851598</v>
+        <v>9.489617303286639</v>
       </c>
       <c r="P4" t="n">
-        <v>355.7789309146834</v>
+        <v>355.8479702019754</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29480,28 +29623,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2647514593540152</v>
+        <v>-0.2659495626137698</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K5" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04419925595835827</v>
+        <v>0.04508569629614245</v>
       </c>
       <c r="M5" t="n">
-        <v>7.43844869022716</v>
+        <v>7.407434857510694</v>
       </c>
       <c r="N5" t="n">
-        <v>87.239146662937</v>
+        <v>86.75725750032014</v>
       </c>
       <c r="O5" t="n">
-        <v>9.340189862253176</v>
+        <v>9.314357599980802</v>
       </c>
       <c r="P5" t="n">
-        <v>361.039689609656</v>
+        <v>361.0514785223972</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29552,28 +29695,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.193412326654465</v>
+        <v>-0.1958034344117369</v>
       </c>
       <c r="J6" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K6" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02644359043713373</v>
+        <v>0.02725950232985608</v>
       </c>
       <c r="M6" t="n">
-        <v>6.9309822225447</v>
+        <v>6.936718636533477</v>
       </c>
       <c r="N6" t="n">
-        <v>80.54585340289523</v>
+        <v>80.498912803186</v>
       </c>
       <c r="O6" t="n">
-        <v>8.97473416892641</v>
+        <v>8.972118635148892</v>
       </c>
       <c r="P6" t="n">
-        <v>355.1140772115013</v>
+        <v>355.137373353976</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29630,28 +29773,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2541228453717808</v>
+        <v>-0.250042130140471</v>
       </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K7" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04051501005876057</v>
+        <v>0.03930257245954316</v>
       </c>
       <c r="M7" t="n">
-        <v>7.210196154133267</v>
+        <v>7.230728353151831</v>
       </c>
       <c r="N7" t="n">
-        <v>88.70748003386522</v>
+        <v>89.20462008128671</v>
       </c>
       <c r="O7" t="n">
-        <v>9.418464844860081</v>
+        <v>9.444819748480471</v>
       </c>
       <c r="P7" t="n">
-        <v>350.070522815352</v>
+        <v>350.0307468681289</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29708,28 +29851,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.24647430660531</v>
+        <v>-0.2452755606863687</v>
       </c>
       <c r="J8" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K8" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04187862045792567</v>
+        <v>0.04106906866251203</v>
       </c>
       <c r="M8" t="n">
-        <v>6.950565947619776</v>
+        <v>7.004291221042279</v>
       </c>
       <c r="N8" t="n">
-        <v>79.01666805755848</v>
+        <v>80.35229850581774</v>
       </c>
       <c r="O8" t="n">
-        <v>8.889132019357035</v>
+        <v>8.96394436092827</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2184370469503</v>
+        <v>350.2065741029544</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29786,28 +29929,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.240330131203818</v>
+        <v>-0.2458478167065565</v>
       </c>
       <c r="J9" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K9" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01930939196450132</v>
+        <v>0.02016562483345985</v>
       </c>
       <c r="M9" t="n">
-        <v>9.942203951449187</v>
+        <v>9.982873527662472</v>
       </c>
       <c r="N9" t="n">
-        <v>162.5165927081788</v>
+        <v>163.5146098418516</v>
       </c>
       <c r="O9" t="n">
-        <v>12.74819958692908</v>
+        <v>12.78728312980719</v>
       </c>
       <c r="P9" t="n">
-        <v>342.4235108594646</v>
+        <v>342.4783945533713</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29864,28 +30007,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.113567138786355</v>
+        <v>-0.1441595800044254</v>
       </c>
       <c r="J10" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K10" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003734491890933667</v>
+        <v>0.005879772673254791</v>
       </c>
       <c r="M10" t="n">
-        <v>11.21627539651119</v>
+        <v>11.33699639557294</v>
       </c>
       <c r="N10" t="n">
-        <v>196.0254896236075</v>
+        <v>201.1334863827914</v>
       </c>
       <c r="O10" t="n">
-        <v>14.00091031410485</v>
+        <v>14.18215379915164</v>
       </c>
       <c r="P10" t="n">
-        <v>339.5602224870199</v>
+        <v>339.8608075164744</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29923,7 +30066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K630"/>
+  <dimension ref="A1:K633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60981,6 +61124,169 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-36.71143582239343,174.75077020898502</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-36.712096636589614,174.75037099403775</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-36.71283248721227,174.750182049387</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-36.71359186320818,174.7502359981024</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-36.71432143386143,174.75008358954793</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-36.71504889622183,174.7501118534052</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>-36.71578530715916,174.75012055348733</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>-36.71728968066537,174.75012437306427</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-36.71148611511978,174.75092352296906</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-36.71214138979415,174.7505243189103</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-36.712853424067646,174.7502932236168</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-36.71359389680568,174.75027172893257</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-36.71431309328708,174.7503040891356</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-36.715027566000714,174.7504312394481</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-36.71573779996878,174.75054757904795</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>-36.716478711663456,174.75047550395183</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-36.71146704992718,174.75086540391968</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-36.712124680316634,174.75046707199212</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-36.712832733528835,174.7501833573188</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-36.713590376133205,174.7502098699337</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-36.71431888069643,174.7501510886679</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-36.71504564794421,174.75016049201986</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-36.71578151996289,174.75015459579586</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>-36.716551186313666,174.75006102008993</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>-36.71728460902272,174.75015060547196</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K633"/>
+  <dimension ref="A1:K637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22702,6 +22702,162 @@
         <v>300.18</v>
       </c>
       <c r="K633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>333.6133333333333</v>
+      </c>
+      <c r="C634" t="n">
+        <v>333.1242857142857</v>
+      </c>
+      <c r="D634" t="n">
+        <v>338.1142857142857</v>
+      </c>
+      <c r="E634" t="n">
+        <v>345.5942857142857</v>
+      </c>
+      <c r="F634" t="n">
+        <v>343.7066666666666</v>
+      </c>
+      <c r="G634" t="n">
+        <v>339.89</v>
+      </c>
+      <c r="H634" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="I634" t="n">
+        <v>339.6642857142857</v>
+      </c>
+      <c r="J634" t="n">
+        <v>333.44</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>331.83</v>
+      </c>
+      <c r="C635" t="n">
+        <v>327.9171428571428</v>
+      </c>
+      <c r="D635" t="n">
+        <v>347.7471428571428</v>
+      </c>
+      <c r="E635" t="n">
+        <v>342.9371428571428</v>
+      </c>
+      <c r="F635" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="G635" t="n">
+        <v>336.84</v>
+      </c>
+      <c r="H635" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>354.3471428571428</v>
+      </c>
+      <c r="J635" t="n">
+        <v>343.19</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>334.06</v>
+      </c>
+      <c r="C636" t="n">
+        <v>335.1114285714286</v>
+      </c>
+      <c r="D636" t="n">
+        <v>333.5314285714285</v>
+      </c>
+      <c r="E636" t="n">
+        <v>347.7314285714286</v>
+      </c>
+      <c r="F636" t="n">
+        <v>343.23</v>
+      </c>
+      <c r="G636" t="n">
+        <v>339.16</v>
+      </c>
+      <c r="H636" t="n">
+        <v>338.98</v>
+      </c>
+      <c r="I636" t="n">
+        <v>323.1614285714285</v>
+      </c>
+      <c r="J636" t="n">
+        <v>319.02</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>343.4666666666667</v>
+      </c>
+      <c r="C637" t="n">
+        <v>344.7728571428572</v>
+      </c>
+      <c r="D637" t="n">
+        <v>344.0428571428571</v>
+      </c>
+      <c r="E637" t="n">
+        <v>356.0828571428572</v>
+      </c>
+      <c r="F637" t="n">
+        <v>353.0333333333333</v>
+      </c>
+      <c r="G637" t="n">
+        <v>344.03</v>
+      </c>
+      <c r="H637" t="n">
+        <v>341.09</v>
+      </c>
+      <c r="I637" t="n">
+        <v>318.2828571428572</v>
+      </c>
+      <c r="J637" t="n">
+        <v>307.45</v>
+      </c>
+      <c r="K637" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22718,7 +22874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B649"/>
+  <dimension ref="A1:B653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29216,6 +29372,46 @@
       </c>
       <c r="B649" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -29389,28 +29585,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3758183412069128</v>
+        <v>-0.3854529423253292</v>
       </c>
       <c r="J2" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K2" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07845142360914148</v>
+        <v>0.0829696549264205</v>
       </c>
       <c r="M2" t="n">
-        <v>7.54036234909835</v>
+        <v>7.538326557677983</v>
       </c>
       <c r="N2" t="n">
-        <v>94.40085530559466</v>
+        <v>94.15834753220985</v>
       </c>
       <c r="O2" t="n">
-        <v>9.7160102565608</v>
+        <v>9.703522429108403</v>
       </c>
       <c r="P2" t="n">
-        <v>352.1676627768509</v>
+        <v>352.2644842693625</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29467,28 +29663,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3905478592589445</v>
+        <v>-0.3968862002367128</v>
       </c>
       <c r="J3" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K3" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1072225070494436</v>
+        <v>0.1112596652683068</v>
       </c>
       <c r="M3" t="n">
-        <v>6.587618059986129</v>
+        <v>6.588060166624875</v>
       </c>
       <c r="N3" t="n">
-        <v>72.87973232032547</v>
+        <v>72.74690874648473</v>
       </c>
       <c r="O3" t="n">
-        <v>8.536962710491681</v>
+        <v>8.529179840200623</v>
       </c>
       <c r="P3" t="n">
-        <v>349.7991966825287</v>
+        <v>349.8627627855518</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29545,28 +29741,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4679755031982695</v>
+        <v>-0.4720283341640327</v>
       </c>
       <c r="J4" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K4" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1232324229885791</v>
+        <v>0.1264457963283765</v>
       </c>
       <c r="M4" t="n">
-        <v>7.295422856272401</v>
+        <v>7.276832614396041</v>
       </c>
       <c r="N4" t="n">
-        <v>90.0528365628372</v>
+        <v>89.63105967438494</v>
       </c>
       <c r="O4" t="n">
-        <v>9.489617303286639</v>
+        <v>9.467368149300256</v>
       </c>
       <c r="P4" t="n">
-        <v>355.8479702019754</v>
+        <v>355.8884602354694</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29623,28 +29819,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2659495626137698</v>
+        <v>-0.2747240452368299</v>
       </c>
       <c r="J5" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K5" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04508569629614245</v>
+        <v>0.04844565251562027</v>
       </c>
       <c r="M5" t="n">
-        <v>7.407434857510694</v>
+        <v>7.401067816055935</v>
       </c>
       <c r="N5" t="n">
-        <v>86.75725750032014</v>
+        <v>86.54502627153313</v>
       </c>
       <c r="O5" t="n">
-        <v>9.314357599980802</v>
+        <v>9.302957931299762</v>
       </c>
       <c r="P5" t="n">
-        <v>361.0514785223972</v>
+        <v>361.1379112840574</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29695,28 +29891,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.1958034344117369</v>
+        <v>-0.2017837511927432</v>
       </c>
       <c r="J6" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K6" t="n">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02725950232985608</v>
+        <v>0.02925183160683764</v>
       </c>
       <c r="M6" t="n">
-        <v>6.936718636533477</v>
+        <v>6.92244893033472</v>
       </c>
       <c r="N6" t="n">
-        <v>80.498912803186</v>
+        <v>80.13132816024898</v>
       </c>
       <c r="O6" t="n">
-        <v>8.972118635148892</v>
+        <v>8.951610366869694</v>
       </c>
       <c r="P6" t="n">
-        <v>355.137373353976</v>
+        <v>355.195743494383</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29773,28 +29969,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.250042130140471</v>
+        <v>-0.2552069250070689</v>
       </c>
       <c r="J7" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K7" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03930257245954316</v>
+        <v>0.04144506561844996</v>
       </c>
       <c r="M7" t="n">
-        <v>7.230728353151831</v>
+        <v>7.202411805289815</v>
       </c>
       <c r="N7" t="n">
-        <v>89.20462008128671</v>
+        <v>88.64819067564248</v>
       </c>
       <c r="O7" t="n">
-        <v>9.444819748480471</v>
+        <v>9.415316812282127</v>
       </c>
       <c r="P7" t="n">
-        <v>350.0307468681289</v>
+        <v>350.0812218398228</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29851,28 +30047,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2452755606863687</v>
+        <v>-0.2446302980590671</v>
       </c>
       <c r="J8" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K8" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04106906866251203</v>
+        <v>0.04140789019825675</v>
       </c>
       <c r="M8" t="n">
-        <v>7.004291221042279</v>
+        <v>6.982846034634226</v>
       </c>
       <c r="N8" t="n">
-        <v>80.35229850581774</v>
+        <v>79.88064040388286</v>
       </c>
       <c r="O8" t="n">
-        <v>8.96394436092827</v>
+        <v>8.937597015075298</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2065741029544</v>
+        <v>350.2001879000328</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29929,28 +30125,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2458478167065565</v>
+        <v>-0.249420075008852</v>
       </c>
       <c r="J9" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K9" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02016562483345985</v>
+        <v>0.02089631697794014</v>
       </c>
       <c r="M9" t="n">
-        <v>9.982873527662472</v>
+        <v>10.01103665298192</v>
       </c>
       <c r="N9" t="n">
-        <v>163.5146098418516</v>
+        <v>163.8751142683033</v>
       </c>
       <c r="O9" t="n">
-        <v>12.78728312980719</v>
+        <v>12.80137157762024</v>
       </c>
       <c r="P9" t="n">
-        <v>342.4783945533713</v>
+        <v>342.5140512882904</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30007,28 +30203,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1441595800044254</v>
+        <v>-0.1606085441506476</v>
       </c>
       <c r="J10" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K10" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005879772673254791</v>
+        <v>0.007327626021627287</v>
       </c>
       <c r="M10" t="n">
-        <v>11.33699639557294</v>
+        <v>11.36204999092863</v>
       </c>
       <c r="N10" t="n">
-        <v>201.1334863827914</v>
+        <v>201.880026449324</v>
       </c>
       <c r="O10" t="n">
-        <v>14.18215379915164</v>
+        <v>14.20844912188955</v>
       </c>
       <c r="P10" t="n">
-        <v>339.8608075164744</v>
+        <v>340.0228778744532</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30066,7 +30262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K633"/>
+  <dimension ref="A1:K637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61287,6 +61483,234 @@
         </is>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-36.7114533007541,174.75082349049646</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-36.71212391680518,174.75046445619336</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-36.7128407417414,174.7502258806768</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-36.71358728848227,174.75015561969101</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-36.714319581375555,174.75013256461406</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-36.71504608750588,174.75015391018928</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>-36.71576204103866,174.75032968630742</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-36.71649546487528,174.7503796928223</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>-36.717214615563634,174.75051263409307</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-36.71144723660451,174.75080500436633</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-36.712107922542835,174.75040965973125</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-36.71286051442418,174.75033087338977</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-36.71358559984173,174.75012595034474</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-36.71431965186624,174.75013070102713</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-36.71504835981037,174.75011988547035</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>-36.71576549520471,174.7502986379655</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-36.716467379770776,174.75054031044326</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>-36.71719409713109,174.75061876081116</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-36.71145481962475,174.75082812066782</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-36.71213002050725,174.75048536755133</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-36.712831334802466,174.75017593013484</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-36.713588646652276,174.75017948277883</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-36.71431978297887,174.7501272347554</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>-36.7150466313698,174.75014576656824</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>-36.71577551224085,174.75020859775645</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>-36.71652703098769,174.7501991658427</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>-36.71724496162832,174.75035567528795</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-36.71148680654418,174.75092563073537</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-36.71215969646869,174.75058703798774</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-36.712852910910705,174.75029049875755</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-36.71359395400045,174.75027273386218</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-36.714315636669696,174.75023685093143</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-36.71504300311641,174.750200094558</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>-36.71577290929831,174.7502319949069</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-36.71653636250397,174.75014579846166</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>-36.717269309883655,174.75022973806557</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K637"/>
+  <dimension ref="A1:K641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22858,6 +22858,158 @@
         <v>307.45</v>
       </c>
       <c r="K637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>344.0266666666667</v>
+      </c>
+      <c r="C638" t="n">
+        <v>336.3285714285714</v>
+      </c>
+      <c r="D638" t="n">
+        <v>335.6785714285714</v>
+      </c>
+      <c r="E638" t="n">
+        <v>359.3985714285715</v>
+      </c>
+      <c r="F638" t="n">
+        <v>343.1033333333333</v>
+      </c>
+      <c r="G638" t="n">
+        <v>347.89</v>
+      </c>
+      <c r="H638" t="n">
+        <v>340.29</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>312.37</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>327.4533333333333</v>
+      </c>
+      <c r="C639" t="n">
+        <v>324.7057142857143</v>
+      </c>
+      <c r="D639" t="n">
+        <v>343.7357142857143</v>
+      </c>
+      <c r="E639" t="n">
+        <v>351.4657142857143</v>
+      </c>
+      <c r="F639" t="n">
+        <v>353.3366666666667</v>
+      </c>
+      <c r="G639" t="n">
+        <v>346</v>
+      </c>
+      <c r="H639" t="n">
+        <v>349.29</v>
+      </c>
+      <c r="I639" t="n">
+        <v>352.6357142857143</v>
+      </c>
+      <c r="J639" t="n">
+        <v>342</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>353.11</v>
+      </c>
+      <c r="C640" t="n">
+        <v>343.37</v>
+      </c>
+      <c r="D640" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="E640" t="n">
+        <v>353.18</v>
+      </c>
+      <c r="F640" t="n">
+        <v>349.9399999999999</v>
+      </c>
+      <c r="G640" t="n">
+        <v>339.22</v>
+      </c>
+      <c r="H640" t="n">
+        <v>347.7</v>
+      </c>
+      <c r="I640" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="J640" t="n">
+        <v>329.76</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>335.3466666666667</v>
+      </c>
+      <c r="C641" t="n">
+        <v>324.9928571428572</v>
+      </c>
+      <c r="D641" t="n">
+        <v>333.5828571428572</v>
+      </c>
+      <c r="E641" t="n">
+        <v>343.3528571428571</v>
+      </c>
+      <c r="F641" t="n">
+        <v>346.5733333333333</v>
+      </c>
+      <c r="G641" t="n">
+        <v>345.08</v>
+      </c>
+      <c r="H641" t="n">
+        <v>358.4</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>342.49</v>
+      </c>
+      <c r="K641" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22874,7 +23026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B653"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29412,6 +29564,46 @@
       </c>
       <c r="B653" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -29585,28 +29777,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3854529423253292</v>
+        <v>-0.3886091685640142</v>
       </c>
       <c r="J2" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K2" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0829696549264205</v>
+        <v>0.08478718126525142</v>
       </c>
       <c r="M2" t="n">
-        <v>7.538326557677983</v>
+        <v>7.546915211429635</v>
       </c>
       <c r="N2" t="n">
-        <v>94.15834753220985</v>
+        <v>94.17695506833343</v>
       </c>
       <c r="O2" t="n">
-        <v>9.703522429108403</v>
+        <v>9.704481184913154</v>
       </c>
       <c r="P2" t="n">
-        <v>352.2644842693625</v>
+        <v>352.2963499005164</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29663,28 +29855,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3968862002367128</v>
+        <v>-0.4070513159471934</v>
       </c>
       <c r="J3" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K3" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1112596652683068</v>
+        <v>0.1166732390298232</v>
       </c>
       <c r="M3" t="n">
-        <v>6.588060166624875</v>
+        <v>6.60304419206428</v>
       </c>
       <c r="N3" t="n">
-        <v>72.74690874648473</v>
+        <v>73.0578187557194</v>
       </c>
       <c r="O3" t="n">
-        <v>8.529179840200623</v>
+        <v>8.547386662350043</v>
       </c>
       <c r="P3" t="n">
-        <v>349.8627627855518</v>
+        <v>349.9652565468706</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29741,28 +29933,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4720283341640327</v>
+        <v>-0.4772374412330757</v>
       </c>
       <c r="J4" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1264457963283765</v>
+        <v>0.1301870051626554</v>
       </c>
       <c r="M4" t="n">
-        <v>7.276832614396041</v>
+        <v>7.260232485701085</v>
       </c>
       <c r="N4" t="n">
-        <v>89.63105967438494</v>
+        <v>89.25580031992368</v>
       </c>
       <c r="O4" t="n">
-        <v>9.467368149300256</v>
+        <v>9.447528794342132</v>
       </c>
       <c r="P4" t="n">
-        <v>355.8884602354694</v>
+        <v>355.9407271691134</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29819,28 +30011,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2747240452368299</v>
+        <v>-0.2777594489218396</v>
       </c>
       <c r="J5" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K5" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04844565251562027</v>
+        <v>0.05005166035115427</v>
       </c>
       <c r="M5" t="n">
-        <v>7.401067816055935</v>
+        <v>7.379647094381881</v>
       </c>
       <c r="N5" t="n">
-        <v>86.54502627153313</v>
+        <v>86.15829742049539</v>
       </c>
       <c r="O5" t="n">
-        <v>9.302957931299762</v>
+        <v>9.282149396583497</v>
       </c>
       <c r="P5" t="n">
-        <v>361.1379112840574</v>
+        <v>361.1680448016236</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29891,28 +30083,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.2017837511927432</v>
+        <v>-0.2041659230695397</v>
       </c>
       <c r="J6" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K6" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02925183160683764</v>
+        <v>0.03032996788432751</v>
       </c>
       <c r="M6" t="n">
-        <v>6.92244893033472</v>
+        <v>6.893181045787458</v>
       </c>
       <c r="N6" t="n">
-        <v>80.13132816024898</v>
+        <v>79.63839646131646</v>
       </c>
       <c r="O6" t="n">
-        <v>8.951610366869694</v>
+        <v>8.924034763564991</v>
       </c>
       <c r="P6" t="n">
-        <v>355.195743494383</v>
+        <v>355.2190922534905</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29969,28 +30161,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2552069250070689</v>
+        <v>-0.2535773740486287</v>
       </c>
       <c r="J7" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K7" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04144506561844996</v>
+        <v>0.04152465469201905</v>
       </c>
       <c r="M7" t="n">
-        <v>7.202411805289815</v>
+        <v>7.171439782549782</v>
       </c>
       <c r="N7" t="n">
-        <v>88.64819067564248</v>
+        <v>88.04371130280757</v>
       </c>
       <c r="O7" t="n">
-        <v>9.415316812282127</v>
+        <v>9.383161050669841</v>
       </c>
       <c r="P7" t="n">
-        <v>350.0812218398228</v>
+        <v>350.065252599285</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30047,28 +30239,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2446302980590671</v>
+        <v>-0.2373325096588027</v>
       </c>
       <c r="J8" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K8" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04140789019825675</v>
+        <v>0.03940882761318798</v>
       </c>
       <c r="M8" t="n">
-        <v>6.982846034634226</v>
+        <v>6.982738594386422</v>
       </c>
       <c r="N8" t="n">
-        <v>79.88064040388286</v>
+        <v>79.78224585665485</v>
       </c>
       <c r="O8" t="n">
-        <v>8.937597015075298</v>
+        <v>8.932090788648246</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2001879000328</v>
+        <v>350.1271634255984</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30125,28 +30317,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.249420075008852</v>
+        <v>-0.2517356802059238</v>
       </c>
       <c r="J9" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02089631697794014</v>
+        <v>0.02126045299485335</v>
       </c>
       <c r="M9" t="n">
-        <v>10.01103665298192</v>
+        <v>10.05139129474106</v>
       </c>
       <c r="N9" t="n">
-        <v>163.8751142683033</v>
+        <v>164.7977908805049</v>
       </c>
       <c r="O9" t="n">
-        <v>12.80137157762024</v>
+        <v>12.83735918639441</v>
       </c>
       <c r="P9" t="n">
-        <v>342.5140512882904</v>
+        <v>342.5372682558942</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30203,28 +30395,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1606085441506476</v>
+        <v>-0.1670922571319598</v>
       </c>
       <c r="J10" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K10" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007327626021627287</v>
+        <v>0.008008512144513147</v>
       </c>
       <c r="M10" t="n">
-        <v>11.36204999092863</v>
+        <v>11.35735795997585</v>
       </c>
       <c r="N10" t="n">
-        <v>201.880026449324</v>
+        <v>201.5887306061551</v>
       </c>
       <c r="O10" t="n">
-        <v>14.20844912188955</v>
+        <v>14.19819462488647</v>
       </c>
       <c r="P10" t="n">
-        <v>340.0228778744532</v>
+        <v>340.0868248087656</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30262,7 +30454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K637"/>
+  <dimension ref="A1:K641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61711,6 +61903,226 @@
         </is>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-36.71148871079476,174.7509314357312</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-36.71213375907775,174.7504981759476</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-36.71283574210849,174.75019933277198</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-36.7135960611226,174.7503097567463</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-36.714319836551745,174.75012581842935</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>-36.71504012731694,174.75024315534228</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>-36.715773896196495,174.75022312394958</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>-36.717258956104,174.75028329132866</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-36.71143235392207,174.75075963561395</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-36.712098058304484,174.75037586483214</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-36.71285228046064,174.7502871510734</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-36.71359101980677,174.75022117937903</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-36.71431550837359,174.75024024265917</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-36.71504153541758,174.75022207117638</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>-36.71576279355409,174.75032292220462</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>-36.716470653371516,174.75052158891734</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>-36.71719660143709,174.7506058079124</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-36.7115195981519,174.7510255941848</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-36.71215538747021,174.75057227524928</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-36.712858159770306,174.7503183701766</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-36.71359210923774,174.7502403208947</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-36.714316945002544,174.750202262762</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-36.71504658666866,174.75014643590697</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>-36.71576475502695,174.7503052911819</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-36.716545319644396,174.75009457201375</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-36.71722235993239,174.75047257804434</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-36.71145919487799,174.75084145832656</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-36.71209894029417,174.75037888652875</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-36.71283144036673,174.75017649067703</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-36.71358586403275,174.75013059216175</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-36.71431836893099,174.75016461830856</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-36.71504222084089,174.75021180798416</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-36.715751555128215,174.75042394018342</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-36.71719557025243,174.75061114145905</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K641"/>
+  <dimension ref="A1:K643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23005,11 +23005,83 @@
       <c r="H641" t="n">
         <v>358.4</v>
       </c>
-      <c r="I641" t="inlineStr"/>
+      <c r="I641" t="n">
+        <v>363.5528571428572</v>
+      </c>
       <c r="J641" t="n">
         <v>342.49</v>
       </c>
       <c r="K641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>322.2633333333333</v>
+      </c>
+      <c r="C642" t="n">
+        <v>319.3871428571428</v>
+      </c>
+      <c r="D642" t="n">
+        <v>333.3671428571428</v>
+      </c>
+      <c r="E642" t="n">
+        <v>337.8471428571428</v>
+      </c>
+      <c r="F642" t="n">
+        <v>341.5566666666667</v>
+      </c>
+      <c r="G642" t="n">
+        <v>337.1</v>
+      </c>
+      <c r="H642" t="n">
+        <v>340.12</v>
+      </c>
+      <c r="I642" t="n">
+        <v>346.4471428571428</v>
+      </c>
+      <c r="J642" t="n">
+        <v>327.12</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>301.0266666666667</v>
+      </c>
+      <c r="C643" t="n">
+        <v>294.5428571428571</v>
+      </c>
+      <c r="D643" t="n">
+        <v>301.8628571428572</v>
+      </c>
+      <c r="E643" t="n">
+        <v>317.9928571428572</v>
+      </c>
+      <c r="F643" t="n">
+        <v>325.8933333333333</v>
+      </c>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr"/>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23026,7 +23098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29603,6 +29675,26 @@
         </is>
       </c>
       <c r="B657" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
         <v>-0.9399999999999999</v>
       </c>
     </row>
@@ -30454,7 +30546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K641"/>
+  <dimension ref="A1:K643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62111,13 +62203,115 @@
           <t>-36.715751555128215,174.75042394018342</t>
         </is>
       </c>
-      <c r="I641" t="inlineStr"/>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-36.71644977113734,174.75064101284565</t>
+        </is>
+      </c>
       <c r="J641" t="inlineStr">
         <is>
           <t>-36.71719557025243,174.75061114145905</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-36.71141470550858,174.75070583582823</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-36.712081721735075,174.75031989580708</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-36.71283099758323,174.750174139514</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-36.71358236507568,174.75006911600303</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-36.71432049070332,174.75010852434227</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-36.71504816610611,174.7501227859383</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-36.71577410591227,174.75022123887112</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-36.71648249077497,174.75045389136525</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-36.717227915667024,174.75044384217802</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-36.711342490705604,174.75048569578402</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-36.71200540945728,174.75005845175892</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-36.71276633016075,174.7498307609901</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-36.713569747139225,174.74984742541747</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-36.714327115256694,174.74993338441672</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr"/>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -29869,28 +29869,28 @@
         <v>0.0324</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3886091685640142</v>
+        <v>-0.410294405562502</v>
       </c>
       <c r="J2" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K2" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08478718126525142</v>
+        <v>0.09073694955026135</v>
       </c>
       <c r="M2" t="n">
-        <v>7.546915211429635</v>
+        <v>7.63951903750466</v>
       </c>
       <c r="N2" t="n">
-        <v>94.17695506833343</v>
+        <v>97.82023390785656</v>
       </c>
       <c r="O2" t="n">
-        <v>9.704481184913154</v>
+        <v>9.890411210250894</v>
       </c>
       <c r="P2" t="n">
-        <v>352.2963499005164</v>
+        <v>352.5159868815386</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29947,28 +29947,28 @@
         <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4070513159471934</v>
+        <v>-0.4299360602763249</v>
       </c>
       <c r="J3" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K3" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1166732390298232</v>
+        <v>0.1224465184369806</v>
       </c>
       <c r="M3" t="n">
-        <v>6.60304419206428</v>
+        <v>6.695038593176542</v>
       </c>
       <c r="N3" t="n">
-        <v>73.0578187557194</v>
+        <v>77.4298611658182</v>
       </c>
       <c r="O3" t="n">
-        <v>8.547386662350043</v>
+        <v>8.7994239110193</v>
       </c>
       <c r="P3" t="n">
-        <v>349.9652565468706</v>
+        <v>350.1966971383171</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30025,28 +30025,28 @@
         <v>0.0378</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4772374412330757</v>
+        <v>-0.4955631680978578</v>
       </c>
       <c r="J4" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K4" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1301870051626554</v>
+        <v>0.1351767067824755</v>
       </c>
       <c r="M4" t="n">
-        <v>7.260232485701085</v>
+        <v>7.331173322462559</v>
       </c>
       <c r="N4" t="n">
-        <v>89.25580031992368</v>
+        <v>92.4883989814777</v>
       </c>
       <c r="O4" t="n">
-        <v>9.447528794342132</v>
+        <v>9.61708890369002</v>
       </c>
       <c r="P4" t="n">
-        <v>355.9407271691134</v>
+        <v>356.125240114474</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30103,28 +30103,28 @@
         <v>0.0406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2777594489218396</v>
+        <v>-0.2962504091799987</v>
       </c>
       <c r="J5" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K5" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05005166035115427</v>
+        <v>0.05515815079213493</v>
       </c>
       <c r="M5" t="n">
-        <v>7.379647094381881</v>
+        <v>7.443385634526567</v>
       </c>
       <c r="N5" t="n">
-        <v>86.15829742049539</v>
+        <v>88.80040720593496</v>
       </c>
       <c r="O5" t="n">
-        <v>9.282149396583497</v>
+        <v>9.423396797648657</v>
       </c>
       <c r="P5" t="n">
-        <v>361.1680448016236</v>
+        <v>361.3516465641823</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30175,28 +30175,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.2041659230695397</v>
+        <v>-0.2155415699416389</v>
       </c>
       <c r="J6" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K6" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03032996788432751</v>
+        <v>0.03343017246285473</v>
       </c>
       <c r="M6" t="n">
-        <v>6.893181045787458</v>
+        <v>6.920818292928965</v>
       </c>
       <c r="N6" t="n">
-        <v>79.63839646131646</v>
+        <v>80.57324699574372</v>
       </c>
       <c r="O6" t="n">
-        <v>8.924034763564991</v>
+        <v>8.976260189842076</v>
       </c>
       <c r="P6" t="n">
-        <v>355.2190922534905</v>
+        <v>355.3310410175994</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30253,28 +30253,28 @@
         <v>0.0451</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2535773740486287</v>
+        <v>-0.2558466032492851</v>
       </c>
       <c r="J7" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K7" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04152465469201905</v>
+        <v>0.04236219825919496</v>
       </c>
       <c r="M7" t="n">
-        <v>7.171439782549782</v>
+        <v>7.169384010507518</v>
       </c>
       <c r="N7" t="n">
-        <v>88.04371130280757</v>
+        <v>87.94913724447255</v>
       </c>
       <c r="O7" t="n">
-        <v>9.383161050669841</v>
+        <v>9.378120133825998</v>
       </c>
       <c r="P7" t="n">
-        <v>350.065252599285</v>
+        <v>350.0875728948986</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30331,28 +30331,28 @@
         <v>0.0435</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2373325096588027</v>
+        <v>-0.2386796308375424</v>
       </c>
       <c r="J8" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K8" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03940882761318798</v>
+        <v>0.03997305043662203</v>
       </c>
       <c r="M8" t="n">
-        <v>6.982738594386422</v>
+        <v>6.976435040924606</v>
       </c>
       <c r="N8" t="n">
-        <v>79.78224585665485</v>
+        <v>79.65635949183768</v>
       </c>
       <c r="O8" t="n">
-        <v>8.932090788648246</v>
+        <v>8.925041147907256</v>
       </c>
       <c r="P8" t="n">
-        <v>350.1271634255984</v>
+        <v>350.1406481899015</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30409,28 +30409,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2517356802059238</v>
+        <v>-0.2366525563336518</v>
       </c>
       <c r="J9" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K9" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02126045299485335</v>
+        <v>0.01880088190523099</v>
       </c>
       <c r="M9" t="n">
-        <v>10.05139129474106</v>
+        <v>10.07827054654511</v>
       </c>
       <c r="N9" t="n">
-        <v>164.7977908805049</v>
+        <v>165.886174917406</v>
       </c>
       <c r="O9" t="n">
-        <v>12.83735918639441</v>
+        <v>12.87968069935765</v>
       </c>
       <c r="P9" t="n">
-        <v>342.5372682558942</v>
+        <v>342.3863229236222</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30487,28 +30487,28 @@
         <v>0.0212</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1670922571319598</v>
+        <v>-0.1704381434530746</v>
       </c>
       <c r="J10" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K10" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008008512144513147</v>
+        <v>0.008358790617186029</v>
       </c>
       <c r="M10" t="n">
-        <v>11.35735795997585</v>
+        <v>11.35258348424531</v>
       </c>
       <c r="N10" t="n">
-        <v>201.5887306061551</v>
+        <v>201.321625670214</v>
       </c>
       <c r="O10" t="n">
-        <v>14.19819462488647</v>
+        <v>14.18878520769886</v>
       </c>
       <c r="P10" t="n">
-        <v>340.0868248087656</v>
+        <v>340.1199670323022</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -29860,13 +29860,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0298</v>
+        <v>0.0349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0324</v>
+        <v>0.0356</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4103180543709379</v>
@@ -29938,13 +29938,13 @@
         <v>0.1252255752675253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0337</v>
+        <v>0.0392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0355</v>
+        <v>0.0409</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4299415079479706</v>
@@ -30016,13 +30016,13 @@
         <v>0.2496791809362417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0338</v>
+        <v>0.0373</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0378</v>
+        <v>0.0409</v>
       </c>
       <c r="I4" t="n">
         <v>-0.4955738741033889</v>
@@ -30094,13 +30094,13 @@
         <v>0.3749047562038356</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0346</v>
+        <v>0.0466</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0406</v>
+        <v>0.052</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2962587146813282</v>
@@ -30171,9 +30171,15 @@
       <c r="E6" t="n">
         <v>0.4993973268094851</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0513</v>
+      </c>
       <c r="I6" t="n">
         <v>-0.2155219059628372</v>
       </c>
@@ -30244,13 +30250,13 @@
         <v>0.6246229020768641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0393</v>
+        <v>0.0482</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0451</v>
+        <v>0.0527</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2558466032492851</v>
@@ -30322,13 +30328,13 @@
         <v>0.7498484773447448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.038</v>
+        <v>0.0411</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0435</v>
+        <v>0.0469</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2386796308375424</v>
@@ -30403,10 +30409,10 @@
         <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0343</v>
+        <v>0.0313</v>
       </c>
       <c r="H9" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2366596535978672</v>
@@ -30481,10 +30487,10 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0198</v>
+        <v>0.0199</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0212</v>
+        <v>0.0206</v>
       </c>
       <c r="I10" t="n">
         <v>-0.1704381434530746</v>

--- a/data/nzd0155/nzd0155.xlsx
+++ b/data/nzd0155/nzd0155.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K645"/>
+  <dimension ref="A1:K646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25590,6 +25590,45 @@
         <v>324.25</v>
       </c>
       <c r="K645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>333.67</v>
+      </c>
+      <c r="C646" t="n">
+        <v>330.55</v>
+      </c>
+      <c r="D646" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="E646" t="n">
+        <v>348.34</v>
+      </c>
+      <c r="F646" t="n">
+        <v>345.24</v>
+      </c>
+      <c r="G646" t="n">
+        <v>342.13</v>
+      </c>
+      <c r="H646" t="n">
+        <v>344.02</v>
+      </c>
+      <c r="I646" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="J646" t="n">
+        <v>324.99</v>
+      </c>
+      <c r="K646" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25606,7 +25645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B661"/>
+  <dimension ref="A1:B662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32224,6 +32263,16 @@
       </c>
       <c r="B661" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -32397,28 +32446,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3617717610922055</v>
+        <v>-0.3643651554439843</v>
       </c>
       <c r="J2" t="n">
+        <v>645</v>
+      </c>
+      <c r="K2" t="n">
         <v>644</v>
       </c>
-      <c r="K2" t="n">
-        <v>643</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.3220579511342757</v>
+        <v>0.3243501637740049</v>
       </c>
       <c r="M2" t="n">
-        <v>2.995917202554641</v>
+        <v>3.002522769168445</v>
       </c>
       <c r="N2" t="n">
-        <v>15.26241677154451</v>
+        <v>15.34873958530226</v>
       </c>
       <c r="O2" t="n">
-        <v>3.906714319161884</v>
+        <v>3.917746748489782</v>
       </c>
       <c r="P2" t="n">
-        <v>351.6346156839952</v>
+        <v>351.6612945747274</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32479,28 +32528,28 @@
         <v>0.0409</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3866992369843729</v>
+        <v>-0.38942213075979</v>
       </c>
       <c r="J3" t="n">
+        <v>645</v>
+      </c>
+      <c r="K3" t="n">
         <v>644</v>
       </c>
-      <c r="K3" t="n">
-        <v>643</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.3730852730420715</v>
+        <v>0.3751298276897557</v>
       </c>
       <c r="M3" t="n">
-        <v>2.857594105294411</v>
+        <v>2.867255467879221</v>
       </c>
       <c r="N3" t="n">
-        <v>13.92010242546327</v>
+        <v>14.01977168459307</v>
       </c>
       <c r="O3" t="n">
-        <v>3.730965347663158</v>
+        <v>3.744298557085568</v>
       </c>
       <c r="P3" t="n">
-        <v>349.5855127067463</v>
+        <v>349.6135237901592</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32555,34 +32604,34 @@
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0372</v>
+        <v>0.0373</v>
       </c>
       <c r="H4" t="n">
         <v>0.0409</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4577564422850642</v>
+        <v>-0.459838618448468</v>
       </c>
       <c r="J4" t="n">
+        <v>645</v>
+      </c>
+      <c r="K4" t="n">
         <v>644</v>
       </c>
-      <c r="K4" t="n">
-        <v>643</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.36880507454142</v>
+        <v>0.3708780487323043</v>
       </c>
       <c r="M4" t="n">
-        <v>3.496018774153359</v>
+        <v>3.503918887241617</v>
       </c>
       <c r="N4" t="n">
-        <v>19.86693979277391</v>
+        <v>19.90701205729772</v>
       </c>
       <c r="O4" t="n">
-        <v>4.45723454540749</v>
+        <v>4.46172747456607</v>
       </c>
       <c r="P4" t="n">
-        <v>355.3293979228736</v>
+        <v>355.3508177853449</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32643,28 +32692,28 @@
         <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2249476894193036</v>
+        <v>-0.2264197843058074</v>
       </c>
       <c r="J5" t="n">
+        <v>645</v>
+      </c>
+      <c r="K5" t="n">
         <v>644</v>
       </c>
-      <c r="K5" t="n">
-        <v>643</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.1766667327899877</v>
+        <v>0.1786710390946173</v>
       </c>
       <c r="M5" t="n">
-        <v>2.711966000704714</v>
+        <v>2.715887442559944</v>
       </c>
       <c r="N5" t="n">
-        <v>13.06409693745191</v>
+        <v>13.07926096212207</v>
       </c>
       <c r="O5" t="n">
-        <v>3.614428991895111</v>
+        <v>3.616526090341678</v>
       </c>
       <c r="P5" t="n">
-        <v>359.0476766371169</v>
+        <v>359.0628204422222</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32719,34 +32768,34 @@
         <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0482</v>
+        <v>0.0483</v>
       </c>
       <c r="H6" t="n">
         <v>0.0513</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1772400131564894</v>
+        <v>-0.1784509178144867</v>
       </c>
       <c r="J6" t="n">
+        <v>645</v>
+      </c>
+      <c r="K6" t="n">
         <v>644</v>
       </c>
-      <c r="K6" t="n">
-        <v>643</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.1441377272038705</v>
+        <v>0.1459584564852091</v>
       </c>
       <c r="M6" t="n">
-        <v>2.461791211179477</v>
+        <v>2.464336850601964</v>
       </c>
       <c r="N6" t="n">
-        <v>10.33344649209121</v>
+        <v>10.34138706307035</v>
       </c>
       <c r="O6" t="n">
-        <v>3.214567854640996</v>
+        <v>3.215802708978017</v>
       </c>
       <c r="P6" t="n">
-        <v>353.849563860429</v>
+        <v>353.8620207368913</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32801,34 +32850,34 @@
         <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0481</v>
+        <v>0.0482</v>
       </c>
       <c r="H7" t="n">
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2131545515365563</v>
+        <v>-0.2134638013815186</v>
       </c>
       <c r="J7" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K7" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1391983913110127</v>
+        <v>0.1399403146521692</v>
       </c>
       <c r="M7" t="n">
-        <v>3.044173593580823</v>
+        <v>3.041313614143964</v>
       </c>
       <c r="N7" t="n">
-        <v>15.64326107685235</v>
+        <v>15.62058377318475</v>
       </c>
       <c r="O7" t="n">
-        <v>3.955156264530183</v>
+        <v>3.952288422317474</v>
       </c>
       <c r="P7" t="n">
-        <v>348.752328672665</v>
+        <v>348.7554982080154</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32889,28 +32938,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1970895933425221</v>
+        <v>-0.1969902183326603</v>
       </c>
       <c r="J8" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K8" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09998714828796929</v>
+        <v>0.1001999387640303</v>
       </c>
       <c r="M8" t="n">
-        <v>3.379715114338519</v>
+        <v>3.374950358674054</v>
       </c>
       <c r="N8" t="n">
-        <v>19.4670943666461</v>
+        <v>19.43707554479936</v>
       </c>
       <c r="O8" t="n">
-        <v>4.4121530307375</v>
+        <v>4.408749884581724</v>
       </c>
       <c r="P8" t="n">
-        <v>348.8885060515437</v>
+        <v>348.8874875462419</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32965,34 +33014,34 @@
         <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0311</v>
+        <v>0.031</v>
       </c>
       <c r="H9" t="n">
-        <v>0.037</v>
+        <v>0.0369</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2770045576254319</v>
+        <v>-0.2770904400763445</v>
       </c>
       <c r="J9" t="n">
+        <v>645</v>
+      </c>
+      <c r="K9" t="n">
         <v>644</v>
       </c>
-      <c r="K9" t="n">
-        <v>643</v>
-      </c>
       <c r="L9" t="n">
-        <v>0.09178987359752766</v>
+        <v>0.09212421853800967</v>
       </c>
       <c r="M9" t="n">
-        <v>5.0580416674334</v>
+        <v>5.050700041562991</v>
       </c>
       <c r="N9" t="n">
-        <v>42.05918300271561</v>
+        <v>41.99399436923151</v>
       </c>
       <c r="O9" t="n">
-        <v>6.485305158796741</v>
+        <v>6.480277337370023</v>
       </c>
       <c r="P9" t="n">
-        <v>342.9402542449591</v>
+        <v>342.9411377390263</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33053,28 +33102,28 @@
         <v>0.0206</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2010734866385568</v>
+        <v>-0.2042791940916419</v>
       </c>
       <c r="J10" t="n">
+        <v>645</v>
+      </c>
+      <c r="K10" t="n">
         <v>644</v>
       </c>
-      <c r="K10" t="n">
-        <v>643</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.0401635522231889</v>
+        <v>0.04141074905240516</v>
       </c>
       <c r="M10" t="n">
-        <v>5.920019045027773</v>
+        <v>5.927954132604001</v>
       </c>
       <c r="N10" t="n">
-        <v>53.52666348080309</v>
+        <v>53.61165657715326</v>
       </c>
       <c r="O10" t="n">
-        <v>7.316191870146866</v>
+        <v>7.32199812736614</v>
       </c>
       <c r="P10" t="n">
-        <v>340.7143224706667</v>
+        <v>340.7473003780959</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33116,7 +33165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K645"/>
+  <dimension ref="A1:K646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69861,6 +69910,63 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-36.71145349344666,174.75082407790623</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-36.71211600963126,174.7504373661427</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-36.71283742820237,174.75020828587733</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-36.71358903340301,174.7501862780165</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-36.71431893285977,174.7501497096136</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-36.715044418659694,174.75017889883378</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-36.7157692947781,174.75026448478584</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-36.71650367886717,174.75033271706707</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-36.71723239812975,174.7504206575554</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
